--- a/HandsPerTon.xlsx
+++ b/HandsPerTon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B30C3FD-ADFD-4C34-A09D-89379AC33288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30070ED2-C12B-4F08-9D87-9570A371DD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hands Per Ton" sheetId="1" r:id="rId1"/>
@@ -167,14 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -481,13 +478,13 @@
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="H55" sqref="H2:H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="11" customWidth="1"/>
     <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
@@ -504,25 +501,25 @@
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -530,25 +527,25 @@
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="6">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="F2" s="5">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5">
         <v>16</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <f>(G2)/F2</f>
         <v>1.3333333333333333</v>
       </c>
@@ -557,25 +554,25 @@
       <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6">
-        <v>12</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="5">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5">
         <v>6</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f t="shared" ref="H3:H33" si="0">(G3)/F3</f>
         <v>0.5</v>
       </c>
@@ -584,25 +581,25 @@
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6">
-        <v>12</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="5">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5">
         <v>10</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
@@ -611,32 +608,32 @@
       <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6">
-        <v>12</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="F5" s="5">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5">
         <v>32</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="L5" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -644,32 +641,32 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6">
-        <v>12</v>
-      </c>
-      <c r="G6" s="6">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="F6" s="5">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -677,32 +674,32 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="6">
-        <v>12</v>
-      </c>
-      <c r="G7" s="6">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="F7" s="5">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L7" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -710,32 +707,32 @@
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="6">
-        <v>12</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="5">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5">
         <v>13</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f t="shared" si="0"/>
         <v>1.0833333333333333</v>
       </c>
       <c r="L8" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -743,29 +740,29 @@
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="6">
-        <v>12</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="F9" s="5">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5">
         <v>20</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -773,29 +770,29 @@
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="6">
-        <v>12</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="F10" s="5">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5">
         <v>17.75</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <f t="shared" si="0"/>
         <v>1.4791666666666667</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -803,29 +800,29 @@
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="6">
-        <v>12</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="F11" s="5">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5">
         <v>18.3333333333333</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <f t="shared" si="0"/>
         <v>1.527777777777775</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -833,29 +830,29 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="6">
-        <v>12</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="F12" s="5">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5">
         <v>18.9166666666667</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <f t="shared" si="0"/>
         <v>1.5763888888888917</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P12" s="3"/>
@@ -864,29 +861,29 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="6">
-        <v>12</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="F13" s="5">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5">
         <v>19.5</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <f t="shared" si="0"/>
         <v>1.625</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="P13" s="3"/>
@@ -895,29 +892,29 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="6">
-        <v>12</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="F14" s="5">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5">
         <v>20.0833333333333</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <f t="shared" si="0"/>
         <v>1.6736111111111083</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -925,29 +922,29 @@
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="6">
-        <v>12</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="F15" s="5">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5">
         <v>20.6666666666667</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <f t="shared" si="0"/>
         <v>1.722222222222225</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -955,25 +952,25 @@
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="6">
-        <v>12</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F16" s="5">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5">
         <v>4</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
@@ -982,25 +979,25 @@
       <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="6">
-        <v>12</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="F17" s="5">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5">
         <v>8</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
@@ -1009,25 +1006,25 @@
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="6">
-        <v>12</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="F18" s="5">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5">
         <v>27</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
@@ -1036,25 +1033,25 @@
       <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="6">
-        <v>12</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="F19" s="5">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5">
         <v>13</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <f t="shared" si="0"/>
         <v>1.0833333333333333</v>
       </c>
@@ -1063,25 +1060,25 @@
       <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="6">
-        <v>12</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="F20" s="5">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5">
         <v>4</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
@@ -1090,25 +1087,25 @@
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="6">
-        <v>12</v>
-      </c>
-      <c r="G21" s="6">
-        <v>5</v>
-      </c>
-      <c r="H21" s="6">
+      <c r="F21" s="5">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5">
+        <v>5</v>
+      </c>
+      <c r="H21" s="5">
         <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
@@ -1117,361 +1114,361 @@
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="6">
-        <v>12</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="F22" s="5">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5">
         <v>8.06666666666667</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <f t="shared" si="0"/>
         <v>0.6722222222222225</v>
       </c>
-      <c r="N22" s="5"/>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="6">
-        <v>12</v>
-      </c>
-      <c r="G23" s="6">
+      <c r="F23" s="5">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5">
         <v>7.4666666666666703</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <f t="shared" si="0"/>
         <v>0.62222222222222257</v>
       </c>
-      <c r="N23" s="5"/>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="6">
-        <v>12</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="F24" s="5">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5">
         <v>6.8666666666666698</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <f t="shared" si="0"/>
         <v>0.57222222222222252</v>
       </c>
-      <c r="N24" s="5"/>
+      <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="6">
-        <v>12</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="F25" s="5">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5">
         <v>6.2666666666666702</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <f t="shared" si="0"/>
         <v>0.52222222222222248</v>
       </c>
-      <c r="N25" s="5"/>
+      <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="6">
-        <v>12</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="F26" s="5">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5">
         <v>5.6666666666666696</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <f t="shared" si="0"/>
         <v>0.47222222222222249</v>
       </c>
-      <c r="N26" s="5"/>
+      <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="6">
-        <v>12</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="F27" s="5">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5">
         <v>5.06666666666667</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <f t="shared" si="0"/>
         <v>0.4222222222222225</v>
       </c>
-      <c r="N27" s="5"/>
+      <c r="N27" s="4"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="6">
-        <v>12</v>
-      </c>
-      <c r="G28" s="6">
+      <c r="F28" s="5">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5">
         <v>4.4666666666666703</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <f t="shared" si="0"/>
         <v>0.37222222222222251</v>
       </c>
-      <c r="N28" s="5"/>
+      <c r="N28" s="4"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="6">
-        <v>12</v>
-      </c>
-      <c r="G29" s="6">
+      <c r="F29" s="5">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5">
         <v>3.8666666666666698</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <f t="shared" si="0"/>
         <v>0.32222222222222247</v>
       </c>
-      <c r="N29" s="5"/>
+      <c r="N29" s="4"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="D30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="6">
-        <v>12</v>
-      </c>
-      <c r="G30" s="6">
+      <c r="F30" s="5">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5">
         <v>3.2666666666666702</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <f t="shared" si="0"/>
         <v>0.27222222222222253</v>
       </c>
-      <c r="N30" s="5"/>
+      <c r="N30" s="4"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="D31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="6">
-        <v>12</v>
-      </c>
-      <c r="G31" s="6">
+      <c r="F31" s="5">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5">
         <v>2.6666666666666701</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <f t="shared" si="0"/>
         <v>0.22222222222222252</v>
       </c>
-      <c r="N31" s="5"/>
+      <c r="N31" s="4"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="D32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="6">
-        <v>12</v>
-      </c>
-      <c r="G32" s="6">
+      <c r="F32" s="5">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5">
         <v>2.06666666666667</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <f t="shared" si="0"/>
         <v>0.1722222222222225</v>
       </c>
-      <c r="N32" s="5"/>
+      <c r="N32" s="4"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="D33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="6">
-        <v>12</v>
-      </c>
-      <c r="G33" s="6">
+      <c r="F33" s="5">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5">
         <v>1.4666666666666699</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <f t="shared" si="0"/>
         <v>0.1222222222222225</v>
       </c>
-      <c r="N33" s="5"/>
+      <c r="N33" s="4"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="D34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="6">
-        <v>12</v>
-      </c>
-      <c r="G34" s="6">
+      <c r="F34" s="5">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5">
         <v>16</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="5">
         <f>(G34)/F34</f>
         <v>1.3333333333333333</v>
       </c>
@@ -1480,25 +1477,25 @@
       <c r="A35" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="B35" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="D35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="6">
-        <v>12</v>
-      </c>
-      <c r="G35" s="6">
+      <c r="F35" s="5">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5">
         <v>4</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <f t="shared" ref="H35:H40" si="1">(G35)/F35</f>
         <v>0.33333333333333331</v>
       </c>
@@ -1507,25 +1504,25 @@
       <c r="A36" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="B36" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="6">
-        <v>12</v>
-      </c>
-      <c r="G36" s="6">
+      <c r="F36" s="5">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5">
         <v>9</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="5">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
@@ -1534,25 +1531,25 @@
       <c r="A37" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="B37" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="6">
-        <v>12</v>
-      </c>
-      <c r="G37" s="6">
+      <c r="F37" s="5">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5">
         <v>28</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <f t="shared" si="1"/>
         <v>2.3333333333333335</v>
       </c>
@@ -1561,25 +1558,25 @@
       <c r="A38" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="6">
-        <v>12</v>
-      </c>
-      <c r="G38" s="6">
+      <c r="F38" s="5">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5">
         <v>4</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="5">
         <f>(G38)/F38</f>
         <v>0.33333333333333331</v>
       </c>
@@ -1588,25 +1585,25 @@
       <c r="A39" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C39" s="10" t="s">
+      <c r="B39" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F39" s="6">
-        <v>12</v>
-      </c>
-      <c r="G39" s="6">
-        <v>5</v>
-      </c>
-      <c r="H39" s="6">
+      <c r="F39" s="5">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5">
+        <v>5</v>
+      </c>
+      <c r="H39" s="5">
         <f t="shared" si="1"/>
         <v>0.41666666666666669</v>
       </c>
@@ -1615,25 +1612,25 @@
       <c r="A40" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C40" s="10" t="s">
+      <c r="B40" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="6">
-        <v>12</v>
-      </c>
-      <c r="G40" s="6">
+      <c r="F40" s="5">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5">
         <v>3</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="5">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
@@ -1642,25 +1639,25 @@
       <c r="A41" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C41" s="10" t="s">
+      <c r="B41" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="D41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="6">
-        <v>12</v>
-      </c>
-      <c r="G41" s="6">
+      <c r="F41" s="5">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5">
         <v>16</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="5">
         <f>(G41)/F41</f>
         <v>1.3333333333333333</v>
       </c>
@@ -1669,25 +1666,25 @@
       <c r="A42" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="B42" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="D42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="6">
-        <v>12</v>
-      </c>
-      <c r="G42" s="6">
+      <c r="F42" s="5">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5">
         <v>6</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="5">
         <f t="shared" ref="H42:H55" si="2">(G42)/F42</f>
         <v>0.5</v>
       </c>
@@ -1696,25 +1693,25 @@
       <c r="A43" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="B43" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="5" t="s">
+      <c r="D43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="6">
-        <v>12</v>
-      </c>
-      <c r="G43" s="6">
+      <c r="F43" s="5">
+        <v>12</v>
+      </c>
+      <c r="G43" s="5">
         <v>10</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="5">
         <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
@@ -1723,25 +1720,25 @@
       <c r="A44" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="B44" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="D44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="6">
-        <v>12</v>
-      </c>
-      <c r="G44" s="6">
+      <c r="F44" s="5">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5">
         <v>32</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="5">
         <f t="shared" si="2"/>
         <v>2.6666666666666665</v>
       </c>
@@ -1750,25 +1747,25 @@
       <c r="A45" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="B45" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="5" t="s">
+      <c r="D45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="6">
-        <v>12</v>
-      </c>
-      <c r="G45" s="6">
-        <v>12</v>
-      </c>
-      <c r="H45" s="6">
+      <c r="F45" s="5">
+        <v>12</v>
+      </c>
+      <c r="G45" s="5">
+        <v>12</v>
+      </c>
+      <c r="H45" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -1777,25 +1774,25 @@
       <c r="A46" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C46" s="10" t="s">
+      <c r="B46" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="6">
-        <v>12</v>
-      </c>
-      <c r="G46" s="6">
+      <c r="F46" s="5">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5">
         <v>4</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="5">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
@@ -1804,25 +1801,25 @@
       <c r="A47" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C47" s="10" t="s">
+      <c r="B47" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="6">
-        <v>12</v>
-      </c>
-      <c r="G47" s="6">
+      <c r="F47" s="5">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5">
         <v>8</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="5">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
@@ -1831,25 +1828,25 @@
       <c r="A48" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C48" s="10" t="s">
+      <c r="B48" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="6">
-        <v>12</v>
-      </c>
-      <c r="G48" s="6">
+      <c r="F48" s="5">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5">
         <v>27</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="5">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
@@ -1858,25 +1855,25 @@
       <c r="A49" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C49" s="10" t="s">
+      <c r="B49" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F49" s="6">
-        <v>12</v>
-      </c>
-      <c r="G49" s="6">
+      <c r="F49" s="5">
+        <v>12</v>
+      </c>
+      <c r="G49" s="5">
         <v>13</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="5">
         <f t="shared" si="2"/>
         <v>1.0833333333333333</v>
       </c>
@@ -1885,25 +1882,25 @@
       <c r="A50" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C50" s="10" t="s">
+      <c r="B50" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F50" s="6">
-        <v>12</v>
-      </c>
-      <c r="G50" s="6">
+      <c r="F50" s="5">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5">
         <v>4</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="5">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
@@ -1912,25 +1909,25 @@
       <c r="A51" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C51" s="10" t="s">
+      <c r="B51" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F51" s="6">
-        <v>12</v>
-      </c>
-      <c r="G51" s="6">
+      <c r="F51" s="5">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5">
         <v>3.8666666666666698</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="5">
         <f t="shared" si="2"/>
         <v>0.32222222222222247</v>
       </c>
@@ -1939,25 +1936,25 @@
       <c r="A52" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C52" s="10" t="s">
+      <c r="B52" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="5" t="s">
+      <c r="D52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="6">
-        <v>12</v>
-      </c>
-      <c r="G52" s="6">
+      <c r="F52" s="5">
+        <v>12</v>
+      </c>
+      <c r="G52" s="5">
         <v>3.2666666666666702</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="5">
         <f t="shared" si="2"/>
         <v>0.27222222222222253</v>
       </c>
@@ -1966,25 +1963,25 @@
       <c r="A53" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C53" s="10" t="s">
+      <c r="B53" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="5" t="s">
+      <c r="D53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="6">
-        <v>12</v>
-      </c>
-      <c r="G53" s="6">
+      <c r="F53" s="5">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5">
         <v>2.6666666666666701</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="5">
         <f t="shared" si="2"/>
         <v>0.22222222222222252</v>
       </c>
@@ -1993,25 +1990,25 @@
       <c r="A54" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C54" s="10" t="s">
+      <c r="B54" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="5" t="s">
+      <c r="D54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="6">
-        <v>12</v>
-      </c>
-      <c r="G54" s="6">
+      <c r="F54" s="5">
+        <v>12</v>
+      </c>
+      <c r="G54" s="5">
         <v>2.06666666666667</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="5">
         <f t="shared" si="2"/>
         <v>0.1722222222222225</v>
       </c>
@@ -2020,25 +2017,25 @@
       <c r="A55" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="4">
-        <v>45327</v>
-      </c>
-      <c r="C55" s="10" t="s">
+      <c r="B55" s="2">
+        <v>45324</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="5" t="s">
+      <c r="D55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F55" s="6">
-        <v>12</v>
-      </c>
-      <c r="G55" s="6">
+      <c r="F55" s="5">
+        <v>12</v>
+      </c>
+      <c r="G55" s="5">
         <v>1.4666666666666699</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="5">
         <f t="shared" si="2"/>
         <v>0.1222222222222225</v>
       </c>
@@ -2046,7 +2043,7 @@
   </sheetData>
   <autoFilter ref="A1:H55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{A787E654-E296-489E-9667-B4D2C68DD9D2}">
       <formula1>$L$5:$L$8</formula1>
     </dataValidation>

--- a/HandsPerTon.xlsx
+++ b/HandsPerTon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30070ED2-C12B-4F08-9D87-9570A371DD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8A3278-0E8B-4877-8F8D-139821F17C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,11 +474,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H55" sqref="H2:H55"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -670,7 +670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -703,7 +703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -736,7 +736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -766,7 +766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -796,7 +796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -826,7 +826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -857,7 +857,7 @@
       </c>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -888,7 +888,7 @@
       </c>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -918,7 +918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>1.0833333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>1.0833333333333333</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>0.27222222222222253</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>0.22222222222222252</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>0.1722222222222225</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -2041,7 +2041,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H55" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Mill No. 1A"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{A787E654-E296-489E-9667-B4D2C68DD9D2}">

--- a/HandsPerTon.xlsx
+++ b/HandsPerTon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8A3278-0E8B-4877-8F8D-139821F17C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D8260C-0316-42AF-9F5C-5BCB6663454A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hands Per Ton" sheetId="1" r:id="rId1"/>
@@ -474,11 +474,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -670,7 +670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -703,7 +703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -736,7 +736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -766,7 +766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -796,7 +796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -826,7 +826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -857,7 +857,7 @@
       </c>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -888,7 +888,7 @@
       </c>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -918,7 +918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>1.0833333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>1.0833333333333333</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>0.27222222222222253</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>0.22222222222222252</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>0.1722222222222225</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -2041,13 +2041,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H55" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Mill No. 1A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{A787E654-E296-489E-9667-B4D2C68DD9D2}">

--- a/HandsPerTon.xlsx
+++ b/HandsPerTon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D8260C-0316-42AF-9F5C-5BCB6663454A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD2FDDF-3EC9-42D5-807A-45D0A5BB59DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hands Per Ton" sheetId="1" r:id="rId1"/>
@@ -474,11 +474,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,7 +948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -975,7 +975,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>1.0833333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>1.0833333333333333</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>0.32222222222222247</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>0.27222222222222253</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>0.22222222222222252</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>0.1722222222222225</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -2041,7 +2041,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H55" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="JJMLN"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{A787E654-E296-489E-9667-B4D2C68DD9D2}">

--- a/HandsPerTon.xlsx
+++ b/HandsPerTon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD2FDDF-3EC9-42D5-807A-45D0A5BB59DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F344689-A968-4BD6-A4A5-C4536119412F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hands Per Ton" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K1" sqref="K1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,10 +490,10 @@
     <col min="6" max="6" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>

--- a/HandsPerTon.xlsx
+++ b/HandsPerTon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F344689-A968-4BD6-A4A5-C4536119412F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B707BE62-5745-434A-B70A-58C0188D25C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hands Per Ton'!$A$1:$H$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hands Per Ton'!$A$1:$H$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -474,11 +475,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:N1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,7 +949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -975,7 +976,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>1.0833333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1138,7 +1139,7 @@
       </c>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1166,7 +1167,7 @@
       </c>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1194,7 +1195,7 @@
       </c>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1222,7 +1223,7 @@
       </c>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1250,7 +1251,7 @@
       </c>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1278,7 +1279,7 @@
       </c>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1306,7 +1307,7 @@
       </c>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1334,7 +1335,7 @@
       </c>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1362,7 +1363,7 @@
       </c>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1390,7 +1391,7 @@
       </c>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1418,7 +1419,7 @@
       </c>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1527,7 +1528,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -1608,7 +1609,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1770,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -1797,7 +1798,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -1824,7 +1825,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>1.0833333333333333</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -1905,7 +1906,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -1932,7 +1933,7 @@
         <v>0.32222222222222247</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>0.27222222222222253</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>0.22222222222222252</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -2013,7 +2014,7 @@
         <v>0.1722222222222225</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -2041,15 +2042,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H55" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="JJMLN"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{A787E654-E296-489E-9667-B4D2C68DD9D2}">
       <formula1>$L$5:$L$8</formula1>
     </dataValidation>
@@ -2058,5 +2053,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HandsPerTon.xlsx
+++ b/HandsPerTon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B707BE62-5745-434A-B70A-58C0188D25C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF79702-D655-4FC6-BDD6-86759B11063B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Hands Per Ton" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hands Per Ton'!$A$1:$H$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hands Per Ton'!$A$1:$H$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hands Per Ton'!$A$1:$H$96</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hands Per Ton'!$A$1:$H$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -115,7 +115,16 @@
     <t>JJMLF</t>
   </si>
   <si>
-    <t>JJMLN</t>
+    <t>Mill 1</t>
+  </si>
+  <si>
+    <t>Mill 2</t>
+  </si>
+  <si>
+    <t>Mill 3</t>
+  </si>
+  <si>
+    <t>Mill 4</t>
   </si>
 </sst>
 </file>
@@ -476,22 +485,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O153" sqref="O153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
     <col min="12" max="12" width="10" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="13.109375" hidden="1" customWidth="1"/>
@@ -526,13 +536,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45323</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
@@ -541,211 +551,217 @@
         <v>1</v>
       </c>
       <c r="F2" s="5">
-        <v>12</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="G2" s="5">
-        <v>16</v>
+        <v>601</v>
       </c>
       <c r="H2" s="5">
         <f>(G2)/F2</f>
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>33.112947658402206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45325</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="5">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="G3" s="5">
-        <v>6</v>
+        <v>532</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H33" si="0">(G3)/F3</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H3:H59" si="0">(G3)/F3</f>
+        <v>28.756756756756758</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45326</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="5">
-        <v>12</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="G4" s="5">
-        <v>10</v>
+        <v>545</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>28.092783505154642</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45327</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G5" s="5">
-        <v>32</v>
+        <v>567</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <v>28.35</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45328</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5">
-        <v>12</v>
+        <v>21.8</v>
       </c>
       <c r="G6" s="5">
-        <v>12</v>
+        <v>593</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>27.201834862385319</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45329</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="5">
-        <v>12</v>
+        <v>22.2</v>
       </c>
       <c r="G7" s="5">
-        <v>12</v>
+        <v>599</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>26.981981981981981</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45330</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F8" s="5">
-        <v>12</v>
+        <v>22.1</v>
       </c>
       <c r="G8" s="5">
-        <v>13</v>
+        <v>599</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="0"/>
-        <v>1.0833333333333333</v>
+        <v>27.104072398190045</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45331</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>6</v>
@@ -757,553 +773,557 @@
         <v>12</v>
       </c>
       <c r="G9" s="5">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>30.25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45332</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="5">
-        <v>12</v>
+        <v>22.4</v>
       </c>
       <c r="G10" s="5">
-        <v>17.75</v>
+        <v>563</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="0"/>
-        <v>1.4791666666666667</v>
+        <v>25.133928571428573</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45333</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="5">
-        <v>12</v>
+        <v>22.3</v>
       </c>
       <c r="G11" s="5">
-        <v>18.3333333333333</v>
+        <v>573</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="0"/>
-        <v>1.527777777777775</v>
+        <v>25.695067264573989</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45334</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="5">
-        <v>12</v>
+        <v>22.5</v>
       </c>
       <c r="G12" s="5">
-        <v>18.9166666666667</v>
+        <v>595</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="0"/>
-        <v>1.5763888888888917</v>
+        <v>26.444444444444443</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P12" s="3"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45335</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F13" s="5">
-        <v>12</v>
+        <v>20.5</v>
       </c>
       <c r="G13" s="5">
-        <v>19.5</v>
+        <v>599</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="0"/>
-        <v>1.625</v>
+        <v>29.219512195121951</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="3"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45336</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="5">
-        <v>12</v>
+        <v>21.2</v>
       </c>
       <c r="G14" s="5">
-        <v>20.0833333333333</v>
+        <v>600</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="0"/>
-        <v>1.6736111111111083</v>
+        <v>28.30188679245283</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45337</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F15" s="5">
-        <v>12</v>
+        <v>22.1</v>
       </c>
       <c r="G15" s="5">
-        <v>20.6666666666667</v>
+        <v>590</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="0"/>
-        <v>1.722222222222225</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>20</v>
+        <v>26.696832579185518</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2">
-        <v>45324</v>
+        <v>45339</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="5">
-        <v>12</v>
+        <v>22.4</v>
       </c>
       <c r="G16" s="5">
-        <v>4</v>
+        <v>582</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>25.982142857142858</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
-        <v>45324</v>
+        <v>45340</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="5">
-        <v>12</v>
+        <v>21.1</v>
       </c>
       <c r="G17" s="5">
-        <v>8</v>
+        <v>553</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>26.208530805687204</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>45324</v>
+        <v>45341</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F18" s="5">
-        <v>12</v>
+        <v>21.5</v>
       </c>
       <c r="G18" s="5">
-        <v>27</v>
+        <v>512</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>23.813953488372093</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>45324</v>
+        <v>45342</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F19" s="5">
-        <v>12</v>
+        <v>21.56</v>
       </c>
       <c r="G19" s="5">
-        <v>13</v>
+        <v>572</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="0"/>
-        <v>1.0833333333333333</v>
+        <v>26.530612244897959</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>45324</v>
+        <v>45344</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5">
-        <v>12</v>
+        <v>22.2</v>
       </c>
       <c r="G20" s="5">
-        <v>4</v>
+        <v>596</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
+        <v>26.846846846846848</v>
+      </c>
+      <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2">
-        <v>45324</v>
+        <v>45345</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F21" s="5">
-        <v>12</v>
+        <v>15.1</v>
       </c>
       <c r="G21" s="5">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
-      </c>
+        <v>33.112582781456958</v>
+      </c>
+      <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>45324</v>
+        <v>45346</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F22" s="5">
-        <v>12</v>
+        <v>22.6</v>
       </c>
       <c r="G22" s="5">
-        <v>8.06666666666667</v>
+        <v>589</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="0"/>
-        <v>0.6722222222222225</v>
+        <v>26.061946902654867</v>
       </c>
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2">
-        <v>45324</v>
+        <v>45347</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23" s="5">
-        <v>12</v>
+        <v>15.25</v>
       </c>
       <c r="G23" s="5">
-        <v>7.4666666666666703</v>
+        <v>415</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="0"/>
-        <v>0.62222222222222257</v>
+        <v>27.21311475409836</v>
       </c>
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>45324</v>
+        <v>45348</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F24" s="5">
-        <v>12</v>
+        <v>7.75</v>
       </c>
       <c r="G24" s="5">
-        <v>6.8666666666666698</v>
+        <v>182</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="0"/>
-        <v>0.57222222222222252</v>
+        <v>23.483870967741936</v>
       </c>
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2">
-        <v>45324</v>
+        <v>45349</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F25" s="5">
-        <v>12</v>
+        <v>23.2</v>
       </c>
       <c r="G25" s="5">
-        <v>6.2666666666666702</v>
+        <v>599</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="0"/>
-        <v>0.52222222222222248</v>
+        <v>25.818965517241381</v>
       </c>
       <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>45324</v>
+        <v>45350</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F26" s="5">
-        <v>12</v>
+        <v>23.3</v>
       </c>
       <c r="G26" s="5">
-        <v>5.6666666666666696</v>
+        <v>597</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="0"/>
-        <v>0.47222222222222249</v>
+        <v>25.622317596566521</v>
       </c>
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>45324</v>
+        <v>45351</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F27" s="5">
-        <v>12</v>
+        <v>23.3</v>
       </c>
       <c r="G27" s="5">
-        <v>5.06666666666667</v>
+        <v>597</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="0"/>
-        <v>0.4222222222222225</v>
+        <v>25.622317596566521</v>
       </c>
       <c r="N27" s="4"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>45324</v>
+        <v>45323</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="5">
-        <v>12</v>
+        <v>27.8</v>
       </c>
       <c r="G28" s="5">
-        <v>4.4666666666666703</v>
+        <v>851</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="0"/>
-        <v>0.37222222222222251</v>
+        <v>30.611510791366907</v>
       </c>
       <c r="N28" s="4"/>
     </row>
@@ -1312,26 +1332,22 @@
         <v>26</v>
       </c>
       <c r="B29" s="2">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="5">
-        <v>12</v>
+        <v>27.4</v>
       </c>
       <c r="G29" s="5">
-        <v>3.8666666666666698</v>
+        <v>741</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="0"/>
-        <v>0.32222222222222247</v>
+        <v>27.043795620437958</v>
       </c>
       <c r="N29" s="4"/>
     </row>
@@ -1340,570 +1356,480 @@
         <v>26</v>
       </c>
       <c r="B30" s="2">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="5">
-        <v>12</v>
+        <v>27.7</v>
       </c>
       <c r="G30" s="5">
-        <v>3.2666666666666702</v>
+        <v>762</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="0"/>
-        <v>0.27222222222222253</v>
-      </c>
-      <c r="N30" s="4"/>
+        <v>27.509025270758123</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="5">
-        <v>12</v>
+        <v>29.8</v>
       </c>
       <c r="G31" s="5">
-        <v>2.6666666666666701</v>
+        <v>809</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" si="0"/>
-        <v>0.22222222222222252</v>
-      </c>
-      <c r="N31" s="4"/>
+        <v>27.14765100671141</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="2">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="5">
-        <v>12</v>
+        <v>30.4</v>
       </c>
       <c r="G32" s="5">
-        <v>2.06666666666667</v>
+        <v>853</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="0"/>
-        <v>0.1722222222222225</v>
-      </c>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+        <v>28.059210526315791</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="2">
-        <v>45324</v>
+        <v>45329</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="5">
-        <v>12</v>
+        <v>30.75</v>
       </c>
       <c r="G33" s="5">
-        <v>1.4666666666666699</v>
+        <v>850</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" si="0"/>
-        <v>0.1222222222222225</v>
-      </c>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+        <v>27.642276422764226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="2">
-        <v>45324</v>
+        <v>45330</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="5">
-        <v>12</v>
+        <v>30.3</v>
       </c>
       <c r="G34" s="5">
-        <v>16</v>
+        <v>850</v>
       </c>
       <c r="H34" s="5">
-        <f>(G34)/F34</f>
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>28.052805280528052</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="2">
-        <v>45324</v>
+        <v>45331</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="5">
-        <v>12</v>
+        <v>10.6</v>
       </c>
       <c r="G35" s="5">
-        <v>4</v>
+        <v>320</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" ref="H35:H40" si="1">(G35)/F35</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>30.188679245283019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>26</v>
       </c>
       <c r="B36" s="2">
-        <v>45324</v>
+        <v>45332</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="5">
-        <v>12</v>
+        <v>30.2</v>
       </c>
       <c r="G36" s="5">
-        <v>9</v>
+        <v>775</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>25.662251655629138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="2">
-        <v>45324</v>
+        <v>45333</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="5">
-        <v>12</v>
+        <v>30.7</v>
       </c>
       <c r="G37" s="5">
-        <v>28</v>
+        <v>813</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="1"/>
-        <v>2.3333333333333335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>26.482084690553748</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="2">
-        <v>45324</v>
+        <v>45334</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="5">
-        <v>12</v>
+        <v>31.48</v>
       </c>
       <c r="G38" s="5">
-        <v>4</v>
+        <v>846</v>
       </c>
       <c r="H38" s="5">
-        <f>(G38)/F38</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>26.874205844980938</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="2">
-        <v>45324</v>
+        <v>45335</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="5">
-        <v>12</v>
+        <v>29.3</v>
       </c>
       <c r="G39" s="5">
-        <v>5</v>
+        <v>845</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="1"/>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>28.839590443686006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="2">
-        <v>45324</v>
+        <v>45336</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="5">
-        <v>12</v>
+        <v>31.5</v>
       </c>
       <c r="G40" s="5">
-        <v>3</v>
+        <v>838</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>26.603174603174605</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B41" s="2">
-        <v>45324</v>
+        <v>45337</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="5">
-        <v>12</v>
+        <v>31.8</v>
       </c>
       <c r="G41" s="5">
-        <v>16</v>
+        <v>827</v>
       </c>
       <c r="H41" s="5">
-        <f>(G41)/F41</f>
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>26.0062893081761</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B42" s="2">
-        <v>45324</v>
+        <v>45339</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="5">
-        <v>12</v>
+        <v>32.5</v>
       </c>
       <c r="G42" s="5">
-        <v>6</v>
+        <v>774</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" ref="H42:H55" si="2">(G42)/F42</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>23.815384615384616</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B43" s="2">
-        <v>45324</v>
+        <v>45340</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="5">
-        <v>12</v>
+        <v>30.5</v>
       </c>
       <c r="G43" s="5">
-        <v>10</v>
+        <v>829</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="2"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>27.180327868852459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B44" s="2">
-        <v>45324</v>
+        <v>45341</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5">
+        <v>32.4</v>
+      </c>
+      <c r="G44" s="5">
+        <v>853</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" si="0"/>
+        <v>26.327160493827162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45342</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G45" s="5">
+        <v>872</v>
+      </c>
+      <c r="H45" s="5">
+        <f t="shared" si="0"/>
+        <v>26.265060240963852</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45344</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5">
+        <v>32.6</v>
+      </c>
+      <c r="G46" s="5">
+        <v>864</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="0"/>
+        <v>26.503067484662576</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45345</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="5">
         <v>19</v>
       </c>
-      <c r="F44" s="5">
-        <v>12</v>
-      </c>
-      <c r="G44" s="5">
-        <v>32</v>
-      </c>
-      <c r="H44" s="5">
-        <f t="shared" si="2"/>
-        <v>2.6666666666666665</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="5">
-        <v>12</v>
-      </c>
-      <c r="G45" s="5">
-        <v>12</v>
-      </c>
-      <c r="H45" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="5">
-        <v>12</v>
-      </c>
-      <c r="G46" s="5">
-        <v>4</v>
-      </c>
-      <c r="H46" s="5">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="2">
-        <v>45324</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="5">
-        <v>12</v>
-      </c>
       <c r="G47" s="5">
-        <v>8</v>
+        <v>553</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>29.105263157894736</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B48" s="2">
-        <v>45324</v>
+        <v>45346</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
       <c r="F48" s="5">
-        <v>12</v>
+        <v>33.61</v>
       </c>
       <c r="G48" s="5">
-        <v>27</v>
+        <v>857</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="2"/>
-        <v>2.25</v>
+        <f t="shared" si="0"/>
+        <v>25.498363582267181</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" s="2">
-        <v>45324</v>
+        <v>45347</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
       <c r="F49" s="5">
-        <v>12</v>
+        <v>22.6</v>
       </c>
       <c r="G49" s="5">
-        <v>13</v>
+        <v>596</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="2"/>
-        <v>1.0833333333333333</v>
+        <f t="shared" si="0"/>
+        <v>26.371681415929203</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50" s="2">
-        <v>45324</v>
+        <v>45348</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="5">
-        <v>12</v>
-      </c>
-      <c r="G50" s="5">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="F50" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G50" s="3">
+        <v>261</v>
       </c>
       <c r="H50" s="5">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>25.588235294117649</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -1911,26 +1837,20 @@
         <v>26</v>
       </c>
       <c r="B51" s="2">
-        <v>45324</v>
+        <v>45349</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="5">
-        <v>12</v>
-      </c>
-      <c r="G51" s="5">
-        <v>3.8666666666666698</v>
+        <v>29</v>
+      </c>
+      <c r="F51" s="3">
+        <v>33.1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>881</v>
       </c>
       <c r="H51" s="5">
-        <f t="shared" si="2"/>
-        <v>0.32222222222222247</v>
+        <f t="shared" si="0"/>
+        <v>26.61631419939577</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -1938,26 +1858,20 @@
         <v>26</v>
       </c>
       <c r="B52" s="2">
-        <v>45324</v>
+        <v>45350</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="5">
-        <v>12</v>
-      </c>
-      <c r="G52" s="5">
-        <v>3.2666666666666702</v>
+        <v>29</v>
+      </c>
+      <c r="F52" s="3">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G52" s="3">
+        <v>875</v>
       </c>
       <c r="H52" s="5">
-        <f t="shared" si="2"/>
-        <v>0.27222222222222253</v>
+        <f t="shared" si="0"/>
+        <v>26.355421686746986</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -1965,26 +1879,20 @@
         <v>26</v>
       </c>
       <c r="B53" s="2">
-        <v>45324</v>
+        <v>45351</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="5">
-        <v>12</v>
-      </c>
-      <c r="G53" s="5">
-        <v>2.6666666666666701</v>
+        <v>29</v>
+      </c>
+      <c r="F53" s="3">
+        <v>33</v>
+      </c>
+      <c r="G53" s="3">
+        <v>877</v>
       </c>
       <c r="H53" s="5">
-        <f t="shared" si="2"/>
-        <v>0.22222222222222252</v>
+        <f t="shared" si="0"/>
+        <v>26.575757575757574</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -1992,26 +1900,20 @@
         <v>26</v>
       </c>
       <c r="B54" s="2">
-        <v>45324</v>
+        <v>45323</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="5">
-        <v>12</v>
-      </c>
-      <c r="G54" s="5">
-        <v>2.06666666666667</v>
+        <v>30</v>
+      </c>
+      <c r="F54" s="3">
+        <v>50.3</v>
+      </c>
+      <c r="G54" s="3">
+        <v>893</v>
       </c>
       <c r="H54" s="5">
-        <f t="shared" si="2"/>
-        <v>0.1722222222222225</v>
+        <f t="shared" si="0"/>
+        <v>17.753479125248511</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2019,37 +1921,2512 @@
         <v>26</v>
       </c>
       <c r="B55" s="2">
-        <v>45324</v>
+        <v>45325</v>
       </c>
       <c r="C55" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="3">
+        <v>46.1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>788</v>
+      </c>
+      <c r="H55" s="5">
+        <f t="shared" si="0"/>
+        <v>17.093275488069413</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="2">
+        <v>45326</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="3">
+        <v>46.6</v>
+      </c>
+      <c r="G56" s="3">
+        <v>771</v>
+      </c>
+      <c r="H56" s="5">
+        <f t="shared" si="0"/>
+        <v>16.545064377682404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45327</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="3">
+        <v>50.4</v>
+      </c>
+      <c r="G57" s="3">
+        <v>829</v>
+      </c>
+      <c r="H57" s="5">
+        <f t="shared" si="0"/>
+        <v>16.448412698412699</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="2">
+        <v>45328</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="3">
+        <v>51.8</v>
+      </c>
+      <c r="G58" s="3">
+        <v>853</v>
+      </c>
+      <c r="H58" s="5">
+        <f t="shared" si="0"/>
+        <v>16.467181467181469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45329</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="3">
+        <v>51.6</v>
+      </c>
+      <c r="G59" s="3">
+        <v>852</v>
+      </c>
+      <c r="H59" s="5">
+        <f t="shared" si="0"/>
+        <v>16.511627906976745</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45330</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="3">
+        <v>52.1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>865</v>
+      </c>
+      <c r="H60" s="5">
+        <f t="shared" ref="H60:H117" si="1">(G60)/F60</f>
+        <v>16.602687140115162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45331</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="3">
+        <v>15</v>
+      </c>
+      <c r="G61" s="3">
+        <v>420</v>
+      </c>
+      <c r="H61" s="5">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45332</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="3">
+        <v>50.6</v>
+      </c>
+      <c r="G62" s="3">
+        <v>825</v>
+      </c>
+      <c r="H62" s="5">
+        <f t="shared" si="1"/>
+        <v>16.304347826086957</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="2">
+        <v>45333</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="3">
+        <v>50.4</v>
+      </c>
+      <c r="G63" s="3">
+        <v>849</v>
+      </c>
+      <c r="H63" s="5">
+        <f t="shared" si="1"/>
+        <v>16.845238095238095</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45334</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="3">
+        <v>52.2</v>
+      </c>
+      <c r="G64" s="3">
+        <v>854</v>
+      </c>
+      <c r="H64" s="5">
+        <f t="shared" si="1"/>
+        <v>16.360153256704979</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="2">
+        <v>45335</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="3">
+        <v>52.5</v>
+      </c>
+      <c r="G65" s="3">
+        <v>871</v>
+      </c>
+      <c r="H65" s="5">
+        <f t="shared" si="1"/>
+        <v>16.590476190476192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="2">
+        <v>45336</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" s="3">
+        <v>50.8</v>
+      </c>
+      <c r="G66" s="3">
+        <v>844</v>
+      </c>
+      <c r="H66" s="5">
+        <f t="shared" si="1"/>
+        <v>16.614173228346459</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="2">
+        <v>45337</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" s="3">
+        <v>50.3</v>
+      </c>
+      <c r="G67" s="3">
+        <v>857</v>
+      </c>
+      <c r="H67" s="5">
+        <f t="shared" si="1"/>
+        <v>17.037773359840955</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="2">
+        <v>45339</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="3">
+        <v>48.1</v>
+      </c>
+      <c r="G68" s="3">
+        <v>795</v>
+      </c>
+      <c r="H68" s="5">
+        <f t="shared" si="1"/>
+        <v>16.528066528066528</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45340</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="3">
+        <v>47.6</v>
+      </c>
+      <c r="G69" s="3">
+        <v>830</v>
+      </c>
+      <c r="H69" s="5">
+        <f t="shared" si="1"/>
+        <v>17.436974789915965</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="2">
+        <v>45341</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" s="3">
+        <v>50.2</v>
+      </c>
+      <c r="G70" s="3">
+        <v>843</v>
+      </c>
+      <c r="H70" s="5">
+        <f t="shared" si="1"/>
+        <v>16.792828685258964</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="2">
+        <v>45342</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="3">
+        <v>51</v>
+      </c>
+      <c r="G71" s="3">
+        <v>868</v>
+      </c>
+      <c r="H71" s="5">
+        <f t="shared" si="1"/>
+        <v>17.019607843137255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="2">
+        <v>45344</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" s="3">
+        <v>51.3</v>
+      </c>
+      <c r="G72" s="3">
+        <v>861</v>
+      </c>
+      <c r="H72" s="5">
+        <f t="shared" si="1"/>
+        <v>16.783625730994153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="2">
+        <v>45345</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" s="3">
+        <v>22.6</v>
+      </c>
+      <c r="G73" s="3">
+        <v>535</v>
+      </c>
+      <c r="H73" s="5">
+        <f t="shared" si="1"/>
+        <v>23.672566371681416</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="2">
+        <v>45346</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" s="3">
+        <v>51.2</v>
+      </c>
+      <c r="G74" s="3">
+        <v>852</v>
+      </c>
+      <c r="H74" s="5">
+        <f t="shared" si="1"/>
+        <v>16.640625</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="2">
+        <v>45347</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="3">
+        <v>34.5</v>
+      </c>
+      <c r="G75" s="3">
+        <v>620</v>
+      </c>
+      <c r="H75" s="5">
+        <f t="shared" si="1"/>
+        <v>17.971014492753625</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="2">
+        <v>45348</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" s="3">
+        <v>17</v>
+      </c>
+      <c r="G76" s="3">
+        <v>259</v>
+      </c>
+      <c r="H76" s="5">
+        <f t="shared" si="1"/>
+        <v>15.235294117647058</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="2">
+        <v>45349</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77" s="3">
+        <v>51.4</v>
+      </c>
+      <c r="G77" s="3">
+        <v>865</v>
+      </c>
+      <c r="H77" s="5">
+        <f t="shared" si="1"/>
+        <v>16.828793774319067</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="2">
+        <v>45350</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" s="3">
+        <v>51.5</v>
+      </c>
+      <c r="G78" s="3">
+        <v>846</v>
+      </c>
+      <c r="H78" s="5">
+        <f t="shared" si="1"/>
+        <v>16.427184466019419</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="2">
+        <v>45351</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="3">
+        <v>51</v>
+      </c>
+      <c r="G79" s="3">
+        <v>859</v>
+      </c>
+      <c r="H79" s="5">
+        <f t="shared" si="1"/>
+        <v>16.843137254901961</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="2">
+        <v>45323</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="3">
+        <v>43.183999999999997</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1055</v>
+      </c>
+      <c r="H80" s="5">
+        <f t="shared" si="1"/>
+        <v>24.430344572063728</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="2">
+        <v>45325</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="3">
+        <v>43.003</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1034</v>
+      </c>
+      <c r="H81" s="5">
+        <f t="shared" si="1"/>
+        <v>24.044834081343161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="2">
+        <v>45326</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" s="3">
+        <v>44.222999999999999</v>
+      </c>
+      <c r="G82" s="3">
+        <v>1085</v>
+      </c>
+      <c r="H82" s="5">
+        <f t="shared" si="1"/>
+        <v>24.534744363792598</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="2">
+        <v>45327</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="3">
+        <v>43.143000000000001</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1072</v>
+      </c>
+      <c r="H83" s="5">
+        <f t="shared" si="1"/>
+        <v>24.847599842384628</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" s="2">
+        <v>45328</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="3">
+        <v>42.081000000000003</v>
+      </c>
+      <c r="G84" s="3">
+        <v>1091</v>
+      </c>
+      <c r="H84" s="5">
+        <f t="shared" si="1"/>
+        <v>25.926189966968465</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" s="2">
+        <v>45329</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="3">
+        <v>44.03</v>
+      </c>
+      <c r="G85" s="3">
+        <v>1090</v>
+      </c>
+      <c r="H85" s="5">
+        <f t="shared" si="1"/>
+        <v>24.755848285260051</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" s="2">
+        <v>45330</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" s="3">
+        <v>45.1</v>
+      </c>
+      <c r="G86" s="3">
+        <v>1105</v>
+      </c>
+      <c r="H86" s="5">
+        <f t="shared" si="1"/>
+        <v>24.50110864745011</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="2">
+        <v>45332</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" s="3">
+        <v>45.052999999999997</v>
+      </c>
+      <c r="G87" s="3">
+        <v>1052</v>
+      </c>
+      <c r="H87" s="5">
+        <f t="shared" si="1"/>
+        <v>23.350276341198146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88" s="2">
+        <v>45333</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" s="3">
+        <v>45.039000000000001</v>
+      </c>
+      <c r="G88" s="3">
+        <v>1072</v>
+      </c>
+      <c r="H88" s="5">
+        <f t="shared" si="1"/>
+        <v>23.801594173938142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" s="2">
+        <v>45334</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" s="3">
+        <v>46.284999999999997</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1061</v>
+      </c>
+      <c r="H89" s="5">
+        <f t="shared" si="1"/>
+        <v>22.923193259155237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="2">
+        <v>45335</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" s="3">
+        <v>46.607999999999997</v>
+      </c>
+      <c r="G90" s="3">
+        <v>1085</v>
+      </c>
+      <c r="H90" s="5">
+        <f t="shared" si="1"/>
+        <v>23.279265362169586</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" s="2">
+        <v>45336</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91" s="3">
+        <v>48.081000000000003</v>
+      </c>
+      <c r="G91" s="3">
+        <v>1104</v>
+      </c>
+      <c r="H91" s="5">
+        <f t="shared" si="1"/>
+        <v>22.961252885755286</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" s="2">
+        <v>45337</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" s="3">
+        <v>47.271999999999998</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1108</v>
+      </c>
+      <c r="H92" s="5">
+        <f t="shared" si="1"/>
+        <v>23.438822135725164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" s="2">
+        <v>45339</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93" s="3">
+        <v>47.334000000000003</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1041</v>
+      </c>
+      <c r="H93" s="5">
+        <f t="shared" si="1"/>
+        <v>21.992647990873365</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="2">
+        <v>45340</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" s="3">
+        <v>46.670999999999999</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1082</v>
+      </c>
+      <c r="H94" s="5">
+        <f t="shared" si="1"/>
+        <v>23.183561526429688</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="2">
+        <v>45341</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" s="3">
+        <v>46.469000000000001</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1097</v>
+      </c>
+      <c r="H95" s="5">
+        <f t="shared" si="1"/>
+        <v>23.607135940089091</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" s="2">
+        <v>45342</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" s="3">
+        <v>46.78</v>
+      </c>
+      <c r="G96" s="3">
+        <v>1105</v>
+      </c>
+      <c r="H96" s="5">
+        <f t="shared" si="1"/>
+        <v>23.621205643437367</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97" s="2">
+        <v>45345</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="3">
+        <v>36.472999999999999</v>
+      </c>
+      <c r="G97" s="3">
+        <v>1079</v>
+      </c>
+      <c r="H97" s="5">
+        <f t="shared" si="1"/>
+        <v>29.583527540920681</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" s="2">
+        <v>45346</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F98" s="3">
+        <v>43.259</v>
+      </c>
+      <c r="G98" s="3">
+        <v>1099</v>
+      </c>
+      <c r="H98" s="5">
+        <f t="shared" si="1"/>
+        <v>25.405118010125062</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" s="2">
+        <v>45347</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" s="3">
+        <v>45.540999999999997</v>
+      </c>
+      <c r="G99" s="3">
+        <v>1110</v>
+      </c>
+      <c r="H99" s="5">
+        <f t="shared" si="1"/>
+        <v>24.373641334182388</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" s="2">
+        <v>45349</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F100" s="3">
+        <v>46.118000000000002</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1095</v>
+      </c>
+      <c r="H100" s="5">
+        <f t="shared" si="1"/>
+        <v>23.743440738973934</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" s="2">
+        <v>45351</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101" s="3">
+        <v>46.665999999999997</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1151</v>
+      </c>
+      <c r="H101" s="5">
+        <f t="shared" si="1"/>
+        <v>24.664638066258092</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" s="2">
+        <v>45323</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="5">
-        <v>12</v>
-      </c>
-      <c r="G55" s="5">
-        <v>1.4666666666666699</v>
-      </c>
-      <c r="H55" s="5">
-        <f t="shared" si="2"/>
-        <v>0.1222222222222225</v>
+      <c r="F102" s="3">
+        <v>37.085999999999999</v>
+      </c>
+      <c r="G102" s="3">
+        <v>878</v>
+      </c>
+      <c r="H102" s="5">
+        <f t="shared" si="1"/>
+        <v>23.674702043897966</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>27</v>
+      </c>
+      <c r="B103" s="2">
+        <v>45325</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" s="3">
+        <v>37.012999999999998</v>
+      </c>
+      <c r="G103" s="3">
+        <v>815</v>
+      </c>
+      <c r="H103" s="5">
+        <f t="shared" si="1"/>
+        <v>22.019290519547187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" s="2">
+        <v>45326</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" s="3">
+        <v>37.183999999999997</v>
+      </c>
+      <c r="G104" s="3">
+        <v>784</v>
+      </c>
+      <c r="H104" s="5">
+        <f t="shared" si="1"/>
+        <v>21.084337349397593</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105" s="2">
+        <v>45327</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" s="3">
+        <v>37.066000000000003</v>
+      </c>
+      <c r="G105" s="3">
+        <v>819</v>
+      </c>
+      <c r="H105" s="5">
+        <f t="shared" si="1"/>
+        <v>22.095721146063777</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" s="2">
+        <v>45328</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F106" s="3">
+        <v>37.051000000000002</v>
+      </c>
+      <c r="G106" s="3">
+        <v>817</v>
+      </c>
+      <c r="H106" s="5">
+        <f t="shared" si="1"/>
+        <v>22.050686891042076</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" s="2">
+        <v>45329</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107" s="3">
+        <v>37.116999999999997</v>
+      </c>
+      <c r="G107" s="3">
+        <v>821</v>
+      </c>
+      <c r="H107" s="5">
+        <f t="shared" si="1"/>
+        <v>22.119244551014361</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108" s="2">
+        <v>45330</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" s="3">
+        <v>37.255000000000003</v>
+      </c>
+      <c r="G108" s="3">
+        <v>797</v>
+      </c>
+      <c r="H108" s="5">
+        <f t="shared" si="1"/>
+        <v>21.393101597101058</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>27</v>
+      </c>
+      <c r="B109" s="2">
+        <v>45332</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109" s="3">
+        <v>37.066000000000003</v>
+      </c>
+      <c r="G109" s="3">
+        <v>793</v>
+      </c>
+      <c r="H109" s="5">
+        <f t="shared" si="1"/>
+        <v>21.394269681109371</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110" s="2">
+        <v>45333</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" s="3">
+        <v>37.442999999999998</v>
+      </c>
+      <c r="G110" s="3">
+        <v>789</v>
+      </c>
+      <c r="H110" s="5">
+        <f t="shared" si="1"/>
+        <v>21.072029484816923</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" s="2">
+        <v>45334</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" s="3">
+        <v>37.354999999999997</v>
+      </c>
+      <c r="G111" s="3">
+        <v>819</v>
+      </c>
+      <c r="H111" s="5">
+        <f t="shared" si="1"/>
+        <v>21.924775799759072</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" s="2">
+        <v>45335</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" s="3">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="G112" s="3">
+        <v>819</v>
+      </c>
+      <c r="H112" s="5">
+        <f t="shared" si="1"/>
+        <v>21.828358208955223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113" s="2">
+        <v>45336</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F113" s="3">
+        <v>38.012</v>
+      </c>
+      <c r="G113" s="3">
+        <v>822</v>
+      </c>
+      <c r="H113" s="5">
+        <f t="shared" si="1"/>
+        <v>21.624750078922446</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>27</v>
+      </c>
+      <c r="B114" s="2">
+        <v>45337</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" s="3">
+        <v>38.07</v>
+      </c>
+      <c r="G114" s="3">
+        <v>831</v>
+      </c>
+      <c r="H114" s="5">
+        <f t="shared" si="1"/>
+        <v>21.828211189913318</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>27</v>
+      </c>
+      <c r="B115" s="2">
+        <v>45339</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115" s="3">
+        <v>38.008000000000003</v>
+      </c>
+      <c r="G115" s="3">
+        <v>799</v>
+      </c>
+      <c r="H115" s="5">
+        <f t="shared" si="1"/>
+        <v>21.02189012839402</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>27</v>
+      </c>
+      <c r="B116" s="2">
+        <v>45340</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116" s="3">
+        <v>37.817999999999998</v>
+      </c>
+      <c r="G116" s="3">
+        <v>786</v>
+      </c>
+      <c r="H116" s="5">
+        <f t="shared" si="1"/>
+        <v>20.783753768046964</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>27</v>
+      </c>
+      <c r="B117" s="2">
+        <v>45341</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F117" s="3">
+        <v>38.021000000000001</v>
+      </c>
+      <c r="G117" s="3">
+        <v>779</v>
+      </c>
+      <c r="H117" s="5">
+        <f t="shared" si="1"/>
+        <v>20.488677309907683</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118" s="2">
+        <v>45342</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118" s="3">
+        <v>37.741</v>
+      </c>
+      <c r="G118" s="3">
+        <v>813</v>
+      </c>
+      <c r="H118" s="5">
+        <f t="shared" ref="H118:H173" si="2">(G118)/F118</f>
+        <v>21.541559577117724</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" s="2">
+        <v>45344</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" s="3">
+        <v>37.430999999999997</v>
+      </c>
+      <c r="G119" s="3">
+        <v>820</v>
+      </c>
+      <c r="H119" s="5">
+        <f t="shared" si="2"/>
+        <v>21.906975501589592</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>27</v>
+      </c>
+      <c r="B120" s="2">
+        <v>45345</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" s="3">
+        <v>34.023000000000003</v>
+      </c>
+      <c r="G120" s="3">
+        <v>808</v>
+      </c>
+      <c r="H120" s="5">
+        <f t="shared" si="2"/>
+        <v>23.748640625459245</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>27</v>
+      </c>
+      <c r="B121" s="2">
+        <v>45346</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121" s="3">
+        <v>37.034999999999997</v>
+      </c>
+      <c r="G121" s="3">
+        <v>810</v>
+      </c>
+      <c r="H121" s="5">
+        <f t="shared" si="2"/>
+        <v>21.871202916160392</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>27</v>
+      </c>
+      <c r="B122" s="2">
+        <v>45347</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122" s="3">
+        <v>36.774000000000001</v>
+      </c>
+      <c r="G122" s="3">
+        <v>811</v>
+      </c>
+      <c r="H122" s="5">
+        <f t="shared" si="2"/>
+        <v>22.053624843639529</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>27</v>
+      </c>
+      <c r="B123" s="2">
+        <v>45349</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123" s="3">
+        <v>37.027000000000001</v>
+      </c>
+      <c r="G123" s="3">
+        <v>766</v>
+      </c>
+      <c r="H123" s="5">
+        <f t="shared" si="2"/>
+        <v>20.687606341318496</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>27</v>
+      </c>
+      <c r="B124" s="2">
+        <v>45350</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F124" s="3">
+        <v>37.466000000000001</v>
+      </c>
+      <c r="G124" s="3">
+        <v>774</v>
+      </c>
+      <c r="H124" s="5">
+        <f t="shared" si="2"/>
+        <v>20.658730582394703</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>27</v>
+      </c>
+      <c r="B125" s="2">
+        <v>45351</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F125" s="3">
+        <v>37.496000000000002</v>
+      </c>
+      <c r="G125" s="3">
+        <v>787</v>
+      </c>
+      <c r="H125" s="5">
+        <f t="shared" si="2"/>
+        <v>20.988905483251546</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126" s="2">
+        <v>45323</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" s="3">
+        <v>29.702999999999999</v>
+      </c>
+      <c r="G126" s="3">
+        <v>841</v>
+      </c>
+      <c r="H126" s="5">
+        <f t="shared" si="2"/>
+        <v>28.313638353028313</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>27</v>
+      </c>
+      <c r="B127" s="2">
+        <v>45325</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F127" s="3">
+        <v>29.024999999999999</v>
+      </c>
+      <c r="G127" s="3">
+        <v>799</v>
+      </c>
+      <c r="H127" s="5">
+        <f t="shared" si="2"/>
+        <v>27.527993109388461</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" s="2">
+        <v>45326</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" s="3">
+        <v>29.349</v>
+      </c>
+      <c r="G128" s="3">
+        <v>812</v>
+      </c>
+      <c r="H128" s="5">
+        <f t="shared" si="2"/>
+        <v>27.66704146648949</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>27</v>
+      </c>
+      <c r="B129" s="2">
+        <v>45327</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F129" s="3">
+        <v>29.460999999999999</v>
+      </c>
+      <c r="G129" s="3">
+        <v>824</v>
+      </c>
+      <c r="H129" s="5">
+        <f t="shared" si="2"/>
+        <v>27.969179593360714</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>27</v>
+      </c>
+      <c r="B130" s="2">
+        <v>45328</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F130" s="3">
+        <v>29.469000000000001</v>
+      </c>
+      <c r="G130" s="3">
+        <v>828</v>
+      </c>
+      <c r="H130" s="5">
+        <f t="shared" si="2"/>
+        <v>28.09732261020055</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>27</v>
+      </c>
+      <c r="B131" s="2">
+        <v>45329</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F131" s="3">
+        <v>29.459</v>
+      </c>
+      <c r="G131" s="3">
+        <v>837</v>
+      </c>
+      <c r="H131" s="5">
+        <f t="shared" si="2"/>
+        <v>28.412369734206862</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>27</v>
+      </c>
+      <c r="B132" s="2">
+        <v>45330</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F132" s="3">
+        <v>29.431999999999999</v>
+      </c>
+      <c r="G132" s="3">
+        <v>840</v>
+      </c>
+      <c r="H132" s="5">
+        <f t="shared" si="2"/>
+        <v>28.540364229410166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>27</v>
+      </c>
+      <c r="B133" s="2">
+        <v>45332</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F133" s="3">
+        <v>29.503</v>
+      </c>
+      <c r="G133" s="3">
+        <v>786</v>
+      </c>
+      <c r="H133" s="5">
+        <f t="shared" si="2"/>
+        <v>26.641358505914653</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>27</v>
+      </c>
+      <c r="B134" s="2">
+        <v>45333</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F134" s="3">
+        <v>29.791</v>
+      </c>
+      <c r="G134" s="3">
+        <v>813</v>
+      </c>
+      <c r="H134" s="5">
+        <f t="shared" si="2"/>
+        <v>27.29012117753684</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>27</v>
+      </c>
+      <c r="B135" s="2">
+        <v>45334</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F135" s="3">
+        <v>29.004000000000001</v>
+      </c>
+      <c r="G135" s="3">
+        <v>806</v>
+      </c>
+      <c r="H135" s="5">
+        <f t="shared" si="2"/>
+        <v>27.789270445455799</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>27</v>
+      </c>
+      <c r="B136" s="2">
+        <v>45335</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F136" s="3">
+        <v>30.024000000000001</v>
+      </c>
+      <c r="G136" s="3">
+        <v>825</v>
+      </c>
+      <c r="H136" s="5">
+        <f t="shared" si="2"/>
+        <v>27.478017585931255</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>27</v>
+      </c>
+      <c r="B137" s="2">
+        <v>45336</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F137" s="3">
+        <v>30.001000000000001</v>
+      </c>
+      <c r="G137" s="3">
+        <v>836</v>
+      </c>
+      <c r="H137" s="5">
+        <f t="shared" si="2"/>
+        <v>27.865737808739709</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>27</v>
+      </c>
+      <c r="B138" s="2">
+        <v>45337</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F138" s="3">
+        <v>29.533999999999999</v>
+      </c>
+      <c r="G138" s="3">
+        <v>846</v>
+      </c>
+      <c r="H138" s="5">
+        <f t="shared" si="2"/>
+        <v>28.644951581228415</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>27</v>
+      </c>
+      <c r="B139" s="2">
+        <v>45339</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F139" s="3">
+        <v>29.033999999999999</v>
+      </c>
+      <c r="G139" s="3">
+        <v>776</v>
+      </c>
+      <c r="H139" s="5">
+        <f t="shared" si="2"/>
+        <v>26.727285251773782</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>27</v>
+      </c>
+      <c r="B140" s="2">
+        <v>45340</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F140" s="3">
+        <v>29.561</v>
+      </c>
+      <c r="G140" s="3">
+        <v>798</v>
+      </c>
+      <c r="H140" s="5">
+        <f t="shared" si="2"/>
+        <v>26.995027231825716</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>27</v>
+      </c>
+      <c r="B141" s="2">
+        <v>45341</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F141" s="3">
+        <v>29.501000000000001</v>
+      </c>
+      <c r="G141" s="3">
+        <v>800</v>
+      </c>
+      <c r="H141" s="5">
+        <f t="shared" si="2"/>
+        <v>27.117724822887357</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>27</v>
+      </c>
+      <c r="B142" s="2">
+        <v>45342</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F142" s="3">
+        <v>29.54</v>
+      </c>
+      <c r="G142" s="3">
+        <v>808</v>
+      </c>
+      <c r="H142" s="5">
+        <f t="shared" si="2"/>
+        <v>27.352742044685172</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>27</v>
+      </c>
+      <c r="B143" s="2">
+        <v>45344</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143" s="3">
+        <v>30.004999999999999</v>
+      </c>
+      <c r="G143" s="3">
+        <v>812</v>
+      </c>
+      <c r="H143" s="5">
+        <f t="shared" si="2"/>
+        <v>27.06215630728212</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>27</v>
+      </c>
+      <c r="B144" s="2">
+        <v>45345</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F144" s="3">
+        <v>24.036999999999999</v>
+      </c>
+      <c r="G144" s="3">
+        <v>780</v>
+      </c>
+      <c r="H144" s="5">
+        <f t="shared" si="2"/>
+        <v>32.449972958355872</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>27</v>
+      </c>
+      <c r="B145" s="2">
+        <v>45346</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F145" s="3">
+        <v>27.029</v>
+      </c>
+      <c r="G145" s="3">
+        <v>794</v>
+      </c>
+      <c r="H145" s="5">
+        <f t="shared" si="2"/>
+        <v>29.375855562543933</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>27</v>
+      </c>
+      <c r="B146" s="2">
+        <v>45347</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F146" s="3">
+        <v>29.136000000000003</v>
+      </c>
+      <c r="G146" s="3">
+        <v>811</v>
+      </c>
+      <c r="H146" s="5">
+        <f t="shared" si="2"/>
+        <v>27.834980779791319</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>27</v>
+      </c>
+      <c r="B147" s="2">
+        <v>45349</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F147" s="3">
+        <v>29.01</v>
+      </c>
+      <c r="G147" s="3">
+        <v>788</v>
+      </c>
+      <c r="H147" s="5">
+        <f t="shared" si="2"/>
+        <v>27.163047225094793</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>27</v>
+      </c>
+      <c r="B148" s="2">
+        <v>45350</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F148" s="3">
+        <v>29.558</v>
+      </c>
+      <c r="G148" s="3">
+        <v>813</v>
+      </c>
+      <c r="H148" s="5">
+        <f t="shared" si="2"/>
+        <v>27.505243927193991</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>27</v>
+      </c>
+      <c r="B149" s="2">
+        <v>45351</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F149" s="3">
+        <v>29.402000000000001</v>
+      </c>
+      <c r="G149" s="3">
+        <v>835</v>
+      </c>
+      <c r="H149" s="5">
+        <f t="shared" si="2"/>
+        <v>28.399428610298617</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>27</v>
+      </c>
+      <c r="B150" s="2">
+        <v>45323</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F150" s="3">
+        <v>35.033999999999999</v>
+      </c>
+      <c r="G150" s="3">
+        <v>977</v>
+      </c>
+      <c r="H150" s="5">
+        <f t="shared" si="2"/>
+        <v>27.887195295998175</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>27</v>
+      </c>
+      <c r="B151" s="2">
+        <v>45325</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F151" s="3">
+        <v>35.011000000000003</v>
+      </c>
+      <c r="G151" s="3">
+        <v>911</v>
+      </c>
+      <c r="H151" s="5">
+        <f t="shared" si="2"/>
+        <v>26.020393590585815</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152" s="2">
+        <v>45326</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F152" s="3">
+        <v>35.506999999999998</v>
+      </c>
+      <c r="G152" s="3">
+        <v>933</v>
+      </c>
+      <c r="H152" s="5">
+        <f t="shared" si="2"/>
+        <v>26.276508857408398</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>27</v>
+      </c>
+      <c r="B153" s="2">
+        <v>45327</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F153" s="3">
+        <v>35.015999999999998</v>
+      </c>
+      <c r="G153" s="3">
+        <v>946</v>
+      </c>
+      <c r="H153" s="5">
+        <f t="shared" si="2"/>
+        <v>27.016221156042953</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154" s="2">
+        <v>45328</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F154" s="3">
+        <v>35.515000000000001</v>
+      </c>
+      <c r="G154" s="3">
+        <v>930</v>
+      </c>
+      <c r="H154" s="5">
+        <f t="shared" si="2"/>
+        <v>26.186118541461354</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155" s="2">
+        <v>45329</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F155" s="3">
+        <v>36.036999999999999</v>
+      </c>
+      <c r="G155" s="3">
+        <v>946</v>
+      </c>
+      <c r="H155" s="5">
+        <f t="shared" si="2"/>
+        <v>26.250797791159087</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156" s="2">
+        <v>45330</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F156" s="3">
+        <v>35.537999999999997</v>
+      </c>
+      <c r="G156" s="3">
+        <v>972</v>
+      </c>
+      <c r="H156" s="5">
+        <f t="shared" si="2"/>
+        <v>27.351004558500762</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>27</v>
+      </c>
+      <c r="B157" s="2">
+        <v>45332</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F157" s="3">
+        <v>35.009</v>
+      </c>
+      <c r="G157" s="3">
+        <v>906</v>
+      </c>
+      <c r="H157" s="5">
+        <f t="shared" si="2"/>
+        <v>25.879059670370477</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>27</v>
+      </c>
+      <c r="B158" s="2">
+        <v>45333</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F158" s="3">
+        <v>35.01</v>
+      </c>
+      <c r="G158" s="3">
+        <v>920</v>
+      </c>
+      <c r="H158" s="5">
+        <f t="shared" si="2"/>
+        <v>26.278206226792346</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>27</v>
+      </c>
+      <c r="B159" s="2">
+        <v>45334</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F159" s="3">
+        <v>36.024000000000001</v>
+      </c>
+      <c r="G159" s="3">
+        <v>927</v>
+      </c>
+      <c r="H159" s="5">
+        <f t="shared" si="2"/>
+        <v>25.732844770153232</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>27</v>
+      </c>
+      <c r="B160" s="2">
+        <v>45335</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F160" s="3">
+        <v>36.11</v>
+      </c>
+      <c r="G160" s="3">
+        <v>952</v>
+      </c>
+      <c r="H160" s="5">
+        <f t="shared" si="2"/>
+        <v>26.363888119634449</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>27</v>
+      </c>
+      <c r="B161" s="2">
+        <v>45336</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F161" s="3">
+        <v>36.01</v>
+      </c>
+      <c r="G161" s="3">
+        <v>957</v>
+      </c>
+      <c r="H161" s="5">
+        <f t="shared" si="2"/>
+        <v>26.575951124687588</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>27</v>
+      </c>
+      <c r="B162" s="2">
+        <v>45337</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F162" s="3">
+        <v>35.209000000000003</v>
+      </c>
+      <c r="G162" s="3">
+        <v>982</v>
+      </c>
+      <c r="H162" s="5">
+        <f t="shared" si="2"/>
+        <v>27.890596154392341</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>27</v>
+      </c>
+      <c r="B163" s="2">
+        <v>45339</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F163" s="3">
+        <v>36.020000000000003</v>
+      </c>
+      <c r="G163" s="3">
+        <v>939</v>
+      </c>
+      <c r="H163" s="5">
+        <f t="shared" si="2"/>
+        <v>26.068850638534144</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>27</v>
+      </c>
+      <c r="B164" s="2">
+        <v>45340</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F164" s="3">
+        <v>36.1</v>
+      </c>
+      <c r="G164" s="3">
+        <v>959</v>
+      </c>
+      <c r="H164" s="5">
+        <f t="shared" si="2"/>
+        <v>26.565096952908586</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>27</v>
+      </c>
+      <c r="B165" s="2">
+        <v>45341</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F165" s="3">
+        <v>35.526000000000003</v>
+      </c>
+      <c r="G165" s="3">
+        <v>954</v>
+      </c>
+      <c r="H165" s="5">
+        <f t="shared" si="2"/>
+        <v>26.853572031751391</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>27</v>
+      </c>
+      <c r="B166" s="2">
+        <v>45342</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F166" s="3">
+        <v>36.008000000000003</v>
+      </c>
+      <c r="G166" s="3">
+        <v>985</v>
+      </c>
+      <c r="H166" s="5">
+        <f t="shared" si="2"/>
+        <v>27.355032215063318</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>27</v>
+      </c>
+      <c r="B167" s="2">
+        <v>45344</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F167" s="3">
+        <v>36.106000000000002</v>
+      </c>
+      <c r="G167" s="3">
+        <v>962</v>
+      </c>
+      <c r="H167" s="5">
+        <f t="shared" si="2"/>
+        <v>26.643771118373678</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>27</v>
+      </c>
+      <c r="B168" s="2">
+        <v>45345</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F168" s="3">
+        <v>32.536000000000001</v>
+      </c>
+      <c r="G168" s="3">
+        <v>947</v>
+      </c>
+      <c r="H168" s="5">
+        <f t="shared" si="2"/>
+        <v>29.106220801573642</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>27</v>
+      </c>
+      <c r="B169" s="2">
+        <v>45346</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F169" s="3">
+        <v>35.002000000000002</v>
+      </c>
+      <c r="G169" s="3">
+        <v>914</v>
+      </c>
+      <c r="H169" s="5">
+        <f t="shared" si="2"/>
+        <v>26.112793554654019</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>27</v>
+      </c>
+      <c r="B170" s="2">
+        <v>45347</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F170" s="3">
+        <v>35.119999999999997</v>
+      </c>
+      <c r="G170" s="3">
+        <v>943</v>
+      </c>
+      <c r="H170" s="5">
+        <f t="shared" si="2"/>
+        <v>26.850797266514807</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>27</v>
+      </c>
+      <c r="B171" s="2">
+        <v>45349</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F171" s="3">
+        <v>36.01</v>
+      </c>
+      <c r="G171" s="3">
+        <v>937</v>
+      </c>
+      <c r="H171" s="5">
+        <f t="shared" si="2"/>
+        <v>26.02054984726465</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>27</v>
+      </c>
+      <c r="B172" s="2">
+        <v>45350</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F172" s="3">
+        <v>36.201999999999998</v>
+      </c>
+      <c r="G172" s="3">
+        <v>942</v>
+      </c>
+      <c r="H172" s="5">
+        <f t="shared" si="2"/>
+        <v>26.02066184188719</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>27</v>
+      </c>
+      <c r="B173" s="2">
+        <v>45351</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F173" s="3">
+        <v>35.518999999999998</v>
+      </c>
+      <c r="G173" s="3">
+        <v>965</v>
+      </c>
+      <c r="H173" s="5">
+        <f t="shared" si="2"/>
+        <v>27.168557673357924</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H96" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{A787E654-E296-489E-9667-B4D2C68DD9D2}">
-      <formula1>$L$5:$L$8</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N10 E1:E1048576" xr:uid="{C0D40973-6001-441E-B08C-5897C12BA20E}">
+      <formula1>$N$4:$N$36</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N11 E1:E1048576" xr:uid="{C0D40973-6001-441E-B08C-5897C12BA20E}">
-      <formula1>$N$5:$N$40</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C80:C1048576" xr:uid="{A787E654-E296-489E-9667-B4D2C68DD9D2}">
+      <formula1>$L$4:$L$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C79" xr:uid="{23FA9073-0322-450D-B418-ACB505F3CF85}">
+      <formula1>$L$4:$L$13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HandsPerTon.xlsx
+++ b/HandsPerTon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF79702-D655-4FC6-BDD6-86759B11063B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2C35B4-90A3-4C09-BFA8-DCFC4588B838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hands Per Ton" sheetId="1" r:id="rId1"/>
@@ -488,16 +488,16 @@
   <dimension ref="A1:P173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O153" sqref="O153"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.109375" style="3" bestFit="1" customWidth="1"/>

--- a/HandsPerTon.xlsx
+++ b/HandsPerTon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB11F46-2C7B-4FFE-A41D-8296C61E8844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE0B196-C54C-4E6C-8B33-1B337FFF4116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hands Per Ton" sheetId="1" r:id="rId1"/>
@@ -526,12 +526,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O742"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H543" sqref="H543"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -601,7 +601,7 @@
         <v>19.671150971599399</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -625,7 +625,7 @@
         <v>16.346153846153847</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -649,7 +649,7 @@
         <v>14.967320261437909</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -673,7 +673,7 @@
         <v>14.84375</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -697,7 +697,7 @@
         <v>15.17241379310345</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -721,7 +721,7 @@
         <v>15.144508670520231</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -745,7 +745,7 @@
         <v>15.070821529745043</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -769,7 +769,7 @@
         <v>26.495726495726498</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -793,7 +793,7 @@
         <v>16.022443890274314</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -817,7 +817,7 @@
         <v>15.857988165680474</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -841,7 +841,7 @@
         <v>14.829545454545453</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -865,7 +865,7 @@
         <v>15.141242937853107</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -889,7 +889,7 @@
         <v>16.246153846153845</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -913,7 +913,7 @@
         <v>16.196319018404907</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -937,7 +937,7 @@
         <v>17.974683544303797</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -961,7 +961,7 @@
         <v>18.447204968944099</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -985,7 +985,7 @@
         <v>18.333333333333336</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>17.764705882352942</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>16.811594202898551</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>21.071428571428569</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>17.664670658682635</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>18.691588785046729</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>18.253012048192769</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>16.420454545454543</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>16.460674157303369</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>17.329376854599406</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>17.434210526315791</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>16.040548598688133</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>16.477272727272727</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>17.543859649122805</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>16.927374301675979</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>17.514124293785311</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>35.384615384615387</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>15.81005586592179</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>17.55952380952381</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>17.314285714285713</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>17.89473684210526</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>17.376093294460642</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>18.363636363636363</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>14.191616766467066</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>15.243902439024392</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>14.357541899441342</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>15.085714285714285</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>14.931350114416476</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>23.055555555555554</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>15.314285714285715</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>14.309392265193368</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>14.767441860465118</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>15.502958579881659</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>16.263079222720478</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>17.516339869281044</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>18.788713007570543</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>18.06930693069307</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>16.705202312138727</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>17.253731343283583</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>21.875</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>17.106842737094837</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>17.125748502994014</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>16.959064327485379</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>16.779661016949152</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>16.206896551724139</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>16.571428571428573</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>17.564102564102566</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>18.741721854304636</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>17.950310559006208</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>18.303030303030305</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>18.708509354254677</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>27.428571428571427</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>18.143712574850301</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>18.143712574850301</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>18.650306748466257</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>35.778389374177337</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>24.58566567884974</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>22.31813875144752</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>23.691404272552393</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>26.021934197407777</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>24.71153846153846</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>25.193608469757866</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>23.209736767619589</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>26</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>26.269509782369749</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>24.402440244024401</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>25.45419216943554</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>26</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>27.30019797853496</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>26</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>24.047529234251229</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>23.640441039058121</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>22.298911600743295</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>26.796116504854368</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>26.774133778024826</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>28.145542079437089</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>28.032090608777725</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>26</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>28.5410657355397</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>27.068761922063764</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>27.202996789154479</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>26</v>
       </c>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>26</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>28.507960014809328</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>26</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>27.662133407345731</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>26</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>28.178063331803582</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>26</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>29.139871382636656</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>26</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>28.267014568384429</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>30.87912087912088</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>26</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>28.53437094682231</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>26</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>29.411764705882355</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>26</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>28.737864077669901</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>26</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>29.400235201881614</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>34.847186518137676</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>26</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>25.970207761662092</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>27.027027027027028</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>26</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>27.921894160928211</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>26</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>30.104443989350809</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>26</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>28.571428571428573</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>26</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>28.565987430965528</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>26</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>22.648401826484019</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>26</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>25.137837585272404</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>26</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>24.543223343332425</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>26</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>24.098536237058191</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>26</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>27.437155119558554</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>24.80592486838583</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>26</v>
       </c>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>26</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>24.098536237058191</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>26</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>25.025208543404528</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>26</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>24.333093006488824</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>26</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>27.605099568011802</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>26</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>28.269717302826972</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>26</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>29.557191517415667</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>26</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>29.19191919191919</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>26</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>28.71189773844641</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>29.552238805970148</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>26</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>29.610914603335019</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>32.529444756029164</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>26</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>24.866948063864928</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>26</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>27.960364956342588</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>26</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>27.205743434725107</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>26</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>29.083224313172991</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>26</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>27.22200846479415</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>26</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>25.858814647036617</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>26</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>26.7343155429798</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>26</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>28.529411764705884</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>26</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>27.051811095827603</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>26</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>26.144937708369891</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>26</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>27.49745393945005</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>26</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>31.584309730005092</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>24.662102861154995</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>26</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>26</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>27.316985214569058</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>26</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>26.389130813447135</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>26</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>27.250431465164866</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>26</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>35.75586229835357</v>
       </c>
     </row>
-    <row r="159" spans="1:13" s="1" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>26</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>23.4375</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>26</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>26</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>26</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>26</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>26</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>26</v>
       </c>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>26</v>
       </c>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>26</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>26</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>26</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>22.727272727272727</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>26</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>26.405228758169933</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>26</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>27.875507442489852</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>26</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>25.289925946625679</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>26</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>31.130268199233715</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>26</v>
       </c>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="M176" s="4"/>
     </row>
-    <row r="177" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>26</v>
       </c>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="M177" s="4"/>
     </row>
-    <row r="178" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="M178" s="4"/>
     </row>
-    <row r="179" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>26</v>
       </c>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="M179" s="4"/>
     </row>
-    <row r="180" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>26</v>
       </c>
@@ -4913,7 +4913,7 @@
       <c r="H180"/>
       <c r="M180" s="4"/>
     </row>
-    <row r="181" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>26</v>
       </c>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="M181" s="4"/>
     </row>
-    <row r="182" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>26</v>
       </c>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="M182" s="4"/>
     </row>
-    <row r="183" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>26</v>
       </c>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="M183" s="4"/>
     </row>
-    <row r="184" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>26</v>
       </c>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="M184" s="4"/>
     </row>
-    <row r="185" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>26</v>
       </c>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="M185" s="4"/>
     </row>
-    <row r="186" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>26</v>
       </c>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="M186" s="4"/>
     </row>
-    <row r="187" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>26</v>
       </c>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="M187" s="4"/>
     </row>
-    <row r="188" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>26</v>
       </c>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="M188" s="4"/>
     </row>
-    <row r="189" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>26</v>
       </c>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="M189" s="4"/>
     </row>
-    <row r="190" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>26</v>
       </c>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="M190" s="4"/>
     </row>
-    <row r="191" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>26</v>
       </c>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="M191" s="4"/>
     </row>
-    <row r="192" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>26</v>
       </c>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="M192" s="4"/>
     </row>
-    <row r="193" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>26</v>
       </c>
@@ -5238,7 +5238,7 @@
       </c>
       <c r="M193" s="4"/>
     </row>
-    <row r="194" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>26</v>
       </c>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="M194" s="4"/>
     </row>
-    <row r="195" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>26</v>
       </c>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="M195" s="4"/>
     </row>
-    <row r="196" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>26</v>
       </c>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="M196" s="4"/>
     </row>
-    <row r="197" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>26</v>
       </c>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="M197" s="4"/>
     </row>
-    <row r="198" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>26</v>
       </c>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="M198" s="4"/>
     </row>
-    <row r="199" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>26</v>
       </c>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="M199" s="4"/>
     </row>
-    <row r="200" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="M200" s="4"/>
     </row>
-    <row r="201" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="M201" s="4"/>
     </row>
-    <row r="202" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>26</v>
       </c>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="M202" s="4"/>
     </row>
-    <row r="203" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>26</v>
       </c>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="M203" s="4"/>
     </row>
-    <row r="204" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>26</v>
       </c>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="M204" s="4"/>
     </row>
-    <row r="205" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>26</v>
       </c>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="M205" s="4"/>
     </row>
-    <row r="206" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>26</v>
       </c>
@@ -5560,7 +5560,7 @@
       <c r="H206"/>
       <c r="M206" s="4"/>
     </row>
-    <row r="207" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>26</v>
       </c>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="M207" s="4"/>
     </row>
-    <row r="208" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>26</v>
       </c>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="M208" s="4"/>
     </row>
-    <row r="209" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>26</v>
       </c>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="M209" s="4"/>
     </row>
-    <row r="210" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>26</v>
       </c>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="M210" s="4"/>
     </row>
-    <row r="211" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>26</v>
       </c>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="M211" s="4"/>
     </row>
-    <row r="212" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>26</v>
       </c>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="M212" s="4"/>
     </row>
-    <row r="213" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>26</v>
       </c>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="M213" s="4"/>
     </row>
-    <row r="214" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>26</v>
       </c>
@@ -5760,7 +5760,7 @@
       </c>
       <c r="M214" s="4"/>
     </row>
-    <row r="215" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>26</v>
       </c>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="M215" s="4"/>
     </row>
-    <row r="216" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>26</v>
       </c>
@@ -5810,7 +5810,7 @@
       </c>
       <c r="M216" s="4"/>
     </row>
-    <row r="217" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>26</v>
       </c>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="M217" s="4"/>
     </row>
-    <row r="218" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>26</v>
       </c>
@@ -5860,7 +5860,7 @@
       </c>
       <c r="M218" s="4"/>
     </row>
-    <row r="219" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>26</v>
       </c>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="M219" s="4"/>
     </row>
-    <row r="220" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>26</v>
       </c>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="M220" s="4"/>
     </row>
-    <row r="221" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>26</v>
       </c>
@@ -5935,7 +5935,7 @@
       </c>
       <c r="M221" s="4"/>
     </row>
-    <row r="222" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>26</v>
       </c>
@@ -5960,7 +5960,7 @@
       </c>
       <c r="M222" s="4"/>
     </row>
-    <row r="223" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>26</v>
       </c>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="M223" s="4"/>
     </row>
-    <row r="224" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>26</v>
       </c>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="M224" s="4"/>
     </row>
-    <row r="225" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>26</v>
       </c>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="M225" s="4"/>
     </row>
-    <row r="226" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>26</v>
       </c>
@@ -6060,7 +6060,7 @@
       </c>
       <c r="M226" s="4"/>
     </row>
-    <row r="227" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>26</v>
       </c>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="M227" s="4"/>
     </row>
-    <row r="228" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>26</v>
       </c>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="M228" s="4"/>
     </row>
-    <row r="229" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>26</v>
       </c>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="M229" s="4"/>
     </row>
-    <row r="230" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>26</v>
       </c>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="M230" s="4"/>
     </row>
-    <row r="231" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>26</v>
       </c>
@@ -6182,7 +6182,7 @@
       <c r="H231"/>
       <c r="M231" s="4"/>
     </row>
-    <row r="232" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>26</v>
       </c>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="M232" s="4"/>
     </row>
-    <row r="233" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>26</v>
       </c>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="M233" s="4"/>
     </row>
-    <row r="234" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>26</v>
       </c>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="M234" s="4"/>
     </row>
-    <row r="235" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>26</v>
       </c>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="M235" s="4"/>
     </row>
-    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>27</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>26.088141134800082</v>
       </c>
     </row>
-    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>27</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>25.620783694560071</v>
       </c>
     </row>
-    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>27</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>26.469390525315596</v>
       </c>
     </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>27</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>26.84843847812478</v>
       </c>
     </row>
-    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>27</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>29.32898829802992</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>27</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>27.70485007599834</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>27</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>26.55337227827934</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>27</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>24.815871541370846</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>27</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>25.021570319240723</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>27</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>24.526198439241917</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>27</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>24.03876809283938</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>27</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>24.778981446893287</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>27</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>24.778981446893287</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>27</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>22.907601740465829</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>27</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>25.849030661350202</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>27</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>25.609035393000198</v>
       </c>
     </row>
-    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>27</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>24.754370294755645</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>27</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>25.467440361057381</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>27</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>25.209542230818826</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>27</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>25.6608639587363</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>27</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>25.615502024022827</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>27</v>
       </c>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="H257" s="5"/>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>27</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>25.443525475093125</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>27</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>25.303011370735973</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>27</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>27.035916326799107</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>27</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>27.783669141039237</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>27</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>24.662001494666757</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>27</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>25.151311365164762</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>27</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>25.961472070703582</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>27</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>26.417436887846602</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>27</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>25.627191799298625</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>27</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>25.483655770513675</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>27</v>
       </c>
@@ -7071,7 +7071,7 @@
         <v>24.197332260875392</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>27</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>25.123284019725443</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>27</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>24.088625531366741</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>27</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>24.806701030927837</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>27</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>23.925537231384308</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>27</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>23.925537231384308</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>27</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>23.527209186220666</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>27</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>24.2000873199027</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>27</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>24.891220885589966</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>27</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>25.121763650346065</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>27</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>25.107282392877732</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>27</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>23.826298597322744</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>27</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>24.787036443988985</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>27</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>25.520833333333336</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>27</v>
       </c>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H282" s="5"/>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>27</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>24.337244676227726</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>27</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>25.049726504226751</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>27</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>25.958441230341691</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>27</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>19.431675720852486</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>27</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>21.881533101045296</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>27</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>21.957726246665299</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>27</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>21.70412378351887</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>27</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>22.157517221788225</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>27</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>20.980445410103204</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>27</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>21.467499667685765</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>27</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>21.044944566155479</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>27</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>21.248162501670453</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>27</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>20.180528691166991</v>
       </c>
     </row>
-    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>27</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>20.967218435572867</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>27</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>20.173630628942604</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>27</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>20.173630628942604</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>27</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>19.512817242698635</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>27</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>19.7613721103654</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>27</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>20.368946963873942</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>27</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>20.965036769449103</v>
       </c>
     </row>
-    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>27</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>22.083277903418917</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>27</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>21.019023546627643</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>27</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>20.885991752028733</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>27</v>
       </c>
@@ -7977,7 +7977,7 @@
       </c>
       <c r="H306" s="5"/>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>27</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>21.969295923769192</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>27</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>21.168501270110074</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>27</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>21.218715995647443</v>
       </c>
     </row>
-    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>27</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>21.047917599641739</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>27</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>24.246818108587078</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>27</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>23.269342641070391</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>27</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>21.04596882664768</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>27</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>21.947326416600159</v>
       </c>
     </row>
-    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>27</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>22.416534181240063</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>27</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>22.527560313149063</v>
       </c>
     </row>
-    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>27</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>22.239810051444401</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>27</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>21.545015155238797</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>27</v>
       </c>
@@ -8289,7 +8289,7 @@
         <v>20.893141945773525</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>27</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>22.055298066165896</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>27</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>21.562050790608527</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>27</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>21.978887663463052</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>27</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>21.978887663463052</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>27</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>22.627737226277372</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>27</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>21.980676328502415</v>
       </c>
     </row>
-    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>27</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>21.05428548982638</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>27</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>23.084828840224525</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>27</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>23.311512054925753</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>27</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>22.433338655596359</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>27</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>23.151844164138591</v>
       </c>
     </row>
-    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>27</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>23.674770825029892</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>27</v>
       </c>
@@ -8598,7 +8598,7 @@
       </c>
       <c r="H332" s="5"/>
     </row>
-    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>27</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>21.769149541060841</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>27</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>21.229753105834252</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>27</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>21.761658031088082</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>27</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>23.015873015873016</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>27</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>22.310126582278482</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>27</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>21.43314139475368</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>27</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>22.31107556977209</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>27</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>22.009569377990431</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>27</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>22.348152286694869</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>27</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>21.499404998016658</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>27</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>21.663504111321949</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>27</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>21.780756342747726</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>27</v>
       </c>
@@ -8910,7 +8910,7 @@
         <v>22.908684546615579</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>27</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>23.020551218735065</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>27</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>22.655758338577723</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>27</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>22.655758338577723</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>27</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>22.260407716941341</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>27</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>22.239747634069403</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>27</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>21.467327199811276</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>27</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>22.914171656686626</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>27</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>22.701927672454993</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>27</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>22.064680579894855</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>27</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>22.064680579894855</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>27</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>23.334712453454696</v>
       </c>
     </row>
-    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>27</v>
       </c>
@@ -9195,7 +9195,7 @@
       </c>
       <c r="H357" s="5"/>
     </row>
-    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>27</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>21.796407185628741</v>
       </c>
     </row>
-    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>27</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>22.466216216216218</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>27</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>21.425170607840023</v>
       </c>
     </row>
-    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>27</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>23.777961888980943</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>27</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>20.502431118314426</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>27</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>20.762395149904492</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>27</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>22.026431718061673</v>
       </c>
     </row>
-    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>27</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>21.708155225882159</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>27</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>21.458160729080365</v>
       </c>
     </row>
-    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>27</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>20.391177694548482</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>27</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>20.964703955450002</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>27</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>20.53520899021748</v>
       </c>
     </row>
-    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>27</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>20.791033866645009</v>
       </c>
     </row>
-    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>27</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>20.893603342976533</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>27</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>20.228462636839602</v>
       </c>
     </row>
-    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>27</v>
       </c>
@@ -9579,7 +9579,7 @@
         <v>20.228462636839602</v>
       </c>
     </row>
-    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>27</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>18.54043392504931</v>
       </c>
     </row>
-    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>27</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>18.381475292432562</v>
       </c>
     </row>
-    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>27</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>18.713634219216857</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>27</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>19.085487077534793</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>27</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>19.674520281758561</v>
       </c>
     </row>
-    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>27</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>20.241276010039673</v>
       </c>
     </row>
-    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>27</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>19.674520281758561</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>27</v>
       </c>
@@ -9768,7 +9768,7 @@
       </c>
       <c r="H381" s="5"/>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>27</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>19.104084321475625</v>
       </c>
     </row>
-    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>27</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>18.456238208514478</v>
       </c>
     </row>
-    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>27</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>18.43817787418655</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>27</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>19.749089437474705</v>
       </c>
     </row>
-    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>27</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>29.203001419590347</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>27</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>28.80065830076116</v>
       </c>
     </row>
-    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>27</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>30.096887239744383</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>27</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>38.671165325720217</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>27</v>
       </c>
@@ -9984,7 +9984,7 @@
         <v>29.758277473085517</v>
       </c>
     </row>
-    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>27</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>30.235839548478129</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>27</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>31.108364235681911</v>
       </c>
     </row>
-    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>27</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>29.185078614736408</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>27</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>28.448792174086641</v>
       </c>
     </row>
-    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>27</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>29.38783811267033</v>
       </c>
     </row>
-    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>27</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>30.501969498030501</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>27</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>29.928172386272948</v>
       </c>
     </row>
-    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>27</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>29.928172386272948</v>
       </c>
     </row>
-    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>27</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>26.782035434693036</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>27</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>27.045908183632736</v>
       </c>
     </row>
-    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>27</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>27.434158020750203</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>27</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>28.088764494202319</v>
       </c>
     </row>
-    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>27</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>27.668383318186407</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>27</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>26.355649803089971</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>27</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>27.870342320508936</v>
       </c>
     </row>
-    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>27</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>28.95345330250327</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>27</v>
       </c>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="H407" s="5"/>
     </row>
-    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>27</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>26.811237062592411</v>
       </c>
     </row>
-    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>27</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>28.292488543534567</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>27</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>28.879784151094235</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>27</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>29.491696024157019</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>27</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>27.671177539890934</v>
       </c>
     </row>
-    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>27</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>27.666799840191768</v>
       </c>
     </row>
-    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>27</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>27.891632510246925</v>
       </c>
     </row>
-    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>27</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>28.986971013028988</v>
       </c>
     </row>
-    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>27</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>28.658847526772057</v>
       </c>
     </row>
-    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>27</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>28.482910253847692</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>27</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>25.579536370903281</v>
       </c>
     </row>
-    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>27</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>28.026790314270993</v>
       </c>
     </row>
-    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>27</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>26.722504736264831</v>
       </c>
     </row>
-    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>27</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>26.198714780029658</v>
       </c>
     </row>
-    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>27</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>28.508109197139117</v>
       </c>
     </row>
-    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>27</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>28.508109197139117</v>
       </c>
     </row>
-    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>27</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>29.293450232078388</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>27</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>29.933830479991595</v>
       </c>
     </row>
-    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>27</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>28.642714570858285</v>
       </c>
     </row>
-    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>27</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>29.051987767584098</v>
       </c>
     </row>
-    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>27</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>28.401191658391259</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>27</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>26.812313803376366</v>
       </c>
     </row>
-    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>27</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>27.408142999006952</v>
       </c>
     </row>
-    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>27</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>28.713474025974026</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>27</v>
       </c>
@@ -10986,7 +10986,7 @@
       </c>
       <c r="H432" s="5"/>
     </row>
-    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>27</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>28.300019790223629</v>
       </c>
     </row>
-    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>27</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>28.579994004197061</v>
       </c>
     </row>
-    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>27</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>30.468347915594443</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>27</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>26.246719160104984</v>
       </c>
     </row>
-    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>27</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>26.061057334326136</v>
       </c>
     </row>
-    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>27</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>25.220550077841203</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>27</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>25.328137817883508</v>
       </c>
     </row>
-    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>27</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>25.509154494959887</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>27</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>26.30497328401151</v>
       </c>
     </row>
-    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>27</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>26.034163408108665</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>27</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>25.194592380172061</v>
       </c>
     </row>
-    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>27</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>25.42709574890743</v>
       </c>
     </row>
-    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>27</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>27.239908106334099</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>27</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>25.779376498800961</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>27</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>25.17412935323383</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>27</v>
       </c>
@@ -11370,7 +11370,7 @@
         <v>25.17412935323383</v>
       </c>
     </row>
-    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>27</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>24.088879659433079</v>
       </c>
     </row>
-    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>27</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>24.151696606786427</v>
       </c>
     </row>
-    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>27</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>25.166543301258326</v>
       </c>
     </row>
-    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>27</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>24.881760230310505</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>27</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>25.119617224880383</v>
       </c>
     </row>
-    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>27</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>24.820574162679424</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>27</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>24.12280701754386</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>27</v>
       </c>
@@ -11559,7 +11559,7 @@
       </c>
       <c r="H456" s="5"/>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>27</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>25.715204114432659</v>
       </c>
     </row>
-    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>27</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>26.258705331658863</v>
       </c>
     </row>
-    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>27</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>25.543992431409649</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>27</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>25.826446280991735</v>
       </c>
     </row>
-    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>27</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>28.479638794825043</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>27</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>26.637931034482758</v>
       </c>
     </row>
-    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>27</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>27.738442315701789</v>
       </c>
     </row>
-    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>27</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>28.154935443565179</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>27</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>28.014513543160913</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>27</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>27.405247813411076</v>
       </c>
     </row>
-    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>27</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>28.809325562031642</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>27</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>26.954177897574127</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>27</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>26.587132509586709</v>
       </c>
     </row>
-    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>27</v>
       </c>
@@ -11895,7 +11895,7 @@
         <v>26.405664306538942</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>27</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>27.238000332170735</v>
       </c>
     </row>
-    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>27</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>27.486256871564219</v>
       </c>
     </row>
-    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>27</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>27.477102414654453</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>27</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>26.542800265428003</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>27</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>28.607172643869891</v>
       </c>
     </row>
-    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>27</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>27.905039566847144</v>
       </c>
     </row>
-    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>27</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>28.895856283365816</v>
       </c>
     </row>
-    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>27</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>26.836158192090398</v>
       </c>
     </row>
-    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>27</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>26.586905948820206</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>27</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>25.756065137919574</v>
       </c>
     </row>
-    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>27</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>28.079242032730406</v>
       </c>
     </row>
-    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>27</v>
       </c>
@@ -12180,7 +12180,7 @@
       </c>
       <c r="H482" s="5"/>
     </row>
-    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>27</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>26.168224299065422</v>
       </c>
     </row>
-    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>27</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>26.7455424095984</v>
       </c>
     </row>
-    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>27</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>27.072053311120364</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>27</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>3.5788597586350392</v>
       </c>
     </row>
-    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>27</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>25.908030656447853</v>
       </c>
     </row>
-    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>27</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>25.86923972716686</v>
       </c>
     </row>
-    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>27</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>27.388922702373709</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>27</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>25.939026444332153</v>
       </c>
     </row>
-    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>27</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>26.285143902844784</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>27</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>27.132750728256344</v>
       </c>
     </row>
-    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>27</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>25.07288629737609</v>
       </c>
     </row>
-    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>27</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>26.611820013431831</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>27</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>26.975272666722173</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>27</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>26.953060208989882</v>
       </c>
     </row>
-    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>27</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>27.159876697492294</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>27</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>27.159876697492294</v>
       </c>
     </row>
-    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>27</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>28.198653198653197</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>27</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>28.476269775187344</v>
       </c>
     </row>
-    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>27</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>28.813705979060309</v>
       </c>
     </row>
-    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>27</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>28.02130274477673</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>27</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>28.132780082987551</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>27</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>27.883817427385889</v>
       </c>
     </row>
-    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>27</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>27.385892116182571</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>27</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>27.905039566847144</v>
       </c>
     </row>
-    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>27</v>
       </c>
@@ -12777,7 +12777,7 @@
       </c>
       <c r="H507" s="5"/>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>27</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>28.141199703776845</v>
       </c>
     </row>
-    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>27</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>27.35112936344969</v>
       </c>
     </row>
-    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>27</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>28.269419862340214</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>27</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>27.695837430350704</v>
       </c>
     </row>
-    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>27</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>26.33436498886898</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>27</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>25.334654124990138</v>
       </c>
     </row>
-    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>27</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v>25.522648083623693</v>
       </c>
     </row>
-    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>27</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>25.195482189400522</v>
       </c>
     </row>
-    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>27</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>25.530110262934691</v>
       </c>
     </row>
-    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>27</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>24.979184013322232</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>27</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>25.62320854686007</v>
       </c>
     </row>
-    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>27</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>25.297748413457359</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>27</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>25.169409486931269</v>
       </c>
     </row>
-    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>27</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>24.900066622251835</v>
       </c>
     </row>
-    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>27</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>25.062447960033307</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>27</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>25.081243229730855</v>
       </c>
     </row>
-    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>27</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>23.664694608782604</v>
       </c>
     </row>
-    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>27</v>
       </c>
@@ -13209,7 +13209,7 @@
         <v>22.674611055941742</v>
       </c>
     </row>
-    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>27</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>23.636363636363637</v>
       </c>
     </row>
-    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>27</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>25.2423938482113</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>27</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>24.995834027662056</v>
       </c>
     </row>
-    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>27</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>24.20965058236273</v>
       </c>
     </row>
-    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>27</v>
       </c>
@@ -13329,7 +13329,7 @@
         <v>22.795341098169718</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>27</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>27</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>24.511082138200781</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>27</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>23.632271468144044</v>
       </c>
     </row>
-    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>27</v>
       </c>
@@ -13425,7 +13425,7 @@
         <v>23.950103950103948</v>
       </c>
     </row>
-    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>27</v>
       </c>
@@ -18418,13 +18418,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H742" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="JJMLN"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H742" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E537:E1048576 E1:E535 M160:M166" xr:uid="{C0D40973-6001-441E-B08C-5897C12BA20E}">

--- a/HandsPerTon.xlsx
+++ b/HandsPerTon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE0B196-C54C-4E6C-8B33-1B337FFF4116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958DFAC2-E3FB-482F-AF40-E42E33F51102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hands Per Ton" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/HandsPerTon.xlsx
+++ b/HandsPerTon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958DFAC2-E3FB-482F-AF40-E42E33F51102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C89709-DFB5-4F7F-9562-F3D4D49F9230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,8 +530,8 @@
   <dimension ref="A1:O742"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <pane ySplit="1" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I726" sqref="I726"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/HandsPerTon.xlsx
+++ b/HandsPerTon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jashfaque\Desktop\dashboardSoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C89709-DFB5-4F7F-9562-F3D4D49F9230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7538E3-C04A-4C48-A4DE-8A3052F60C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="180" windowWidth="12060" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hands Per Ton" sheetId="1" r:id="rId1"/>
@@ -526,11 +526,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:O742"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I726" sqref="I726"/>
     </sheetView>
   </sheetViews>
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -601,7 +601,7 @@
         <v>19.671150971599399</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -625,7 +625,7 @@
         <v>16.346153846153847</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -649,7 +649,7 @@
         <v>14.967320261437909</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -673,7 +673,7 @@
         <v>14.84375</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -697,7 +697,7 @@
         <v>15.17241379310345</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -721,7 +721,7 @@
         <v>15.144508670520231</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -745,7 +745,7 @@
         <v>15.070821529745043</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -769,7 +769,7 @@
         <v>26.495726495726498</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -793,7 +793,7 @@
         <v>16.022443890274314</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -817,7 +817,7 @@
         <v>15.857988165680474</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -841,7 +841,7 @@
         <v>14.829545454545453</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -865,7 +865,7 @@
         <v>15.141242937853107</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -889,7 +889,7 @@
         <v>16.246153846153845</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -913,7 +913,7 @@
         <v>16.196319018404907</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -937,7 +937,7 @@
         <v>17.974683544303797</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -961,7 +961,7 @@
         <v>18.447204968944099</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -985,7 +985,7 @@
         <v>18.333333333333336</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>17.764705882352942</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>16.811594202898551</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>21.071428571428569</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>17.664670658682635</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>18.691588785046729</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>18.253012048192769</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>16.420454545454543</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>16.460674157303369</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>17.329376854599406</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>17.434210526315791</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>16.040548598688133</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>16.477272727272727</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>17.543859649122805</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>16.927374301675979</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>17.514124293785311</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>35.384615384615387</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>15.81005586592179</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>17.55952380952381</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>17.314285714285713</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>17.89473684210526</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>17.376093294460642</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>18.363636363636363</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>14.191616766467066</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>15.243902439024392</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>14.357541899441342</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>15.085714285714285</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>14.931350114416476</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>23.055555555555554</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>15.314285714285715</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>14.309392265193368</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>14.767441860465118</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>15.502958579881659</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>16.263079222720478</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>17.516339869281044</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>18.788713007570543</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>18.06930693069307</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>16.705202312138727</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>17.253731343283583</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>21.875</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>17.106842737094837</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>17.125748502994014</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>16.959064327485379</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>16.779661016949152</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>16.206896551724139</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>16.571428571428573</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>17.564102564102566</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>18.741721854304636</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>17.950310559006208</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>18.303030303030305</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>18.708509354254677</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>27.428571428571427</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>18.143712574850301</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>18.143712574850301</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>18.650306748466257</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>35.778389374177337</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>24.58566567884974</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>22.31813875144752</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>23.691404272552393</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>26.021934197407777</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>24.71153846153846</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>25.193608469757866</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>23.209736767619589</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>26</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>26.269509782369749</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>24.402440244024401</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>25.45419216943554</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>26</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>27.30019797853496</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>26</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>24.047529234251229</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>23.640441039058121</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>22.298911600743295</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>26.796116504854368</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>26.774133778024826</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>28.145542079437089</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>28.032090608777725</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>26</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>28.5410657355397</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>27.068761922063764</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>27.202996789154479</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>26</v>
       </c>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>26</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>28.507960014809328</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>26</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>27.662133407345731</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>26</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>28.178063331803582</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>26</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>29.139871382636656</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>26</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>28.267014568384429</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>30.87912087912088</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>26</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>28.53437094682231</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>26</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>29.411764705882355</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>26</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>28.737864077669901</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>26</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>29.400235201881614</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>34.847186518137676</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>26</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>25.970207761662092</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>27.027027027027028</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>26</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>27.921894160928211</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>26</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>30.104443989350809</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>26</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>28.571428571428573</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>26</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>28.565987430965528</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>26</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>22.648401826484019</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>26</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>25.137837585272404</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>26</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>24.543223343332425</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>26</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>24.098536237058191</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>26</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>27.437155119558554</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>24.80592486838583</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>26</v>
       </c>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>26</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>24.098536237058191</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>26</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>25.025208543404528</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>26</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>24.333093006488824</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>26</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>27.605099568011802</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>26</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>28.269717302826972</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>26</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>29.557191517415667</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>26</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>29.19191919191919</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>26</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>28.71189773844641</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>29.552238805970148</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>26</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>29.610914603335019</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>32.529444756029164</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>26</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>24.866948063864928</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>26</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>27.960364956342588</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>26</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>27.205743434725107</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>26</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>29.083224313172991</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>26</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>27.22200846479415</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>26</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>25.858814647036617</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>26</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>26.7343155429798</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>26</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>28.529411764705884</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>26</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>27.051811095827603</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>26</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>26.144937708369891</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>26</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>27.49745393945005</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>26</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>31.584309730005092</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>24.662102861154995</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>26</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>26</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>27.316985214569058</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>26</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>26.389130813447135</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>26</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>27.250431465164866</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>26</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>35.75586229835357</v>
       </c>
     </row>
-    <row r="159" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" s="1" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>26</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>23.4375</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>26</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>26</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>26</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>26</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>26</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="28.8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>26</v>
       </c>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>26</v>
       </c>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>26</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>26</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>26</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>22.727272727272727</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>26</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>26.405228758169933</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>26</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>27.875507442489852</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>26</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>25.289925946625679</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>26</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>31.130268199233715</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>26</v>
       </c>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="M176" s="4"/>
     </row>
-    <row r="177" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>26</v>
       </c>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="M177" s="4"/>
     </row>
-    <row r="178" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="M178" s="4"/>
     </row>
-    <row r="179" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>26</v>
       </c>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="M179" s="4"/>
     </row>
-    <row r="180" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>26</v>
       </c>
@@ -4913,7 +4913,7 @@
       <c r="H180"/>
       <c r="M180" s="4"/>
     </row>
-    <row r="181" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>26</v>
       </c>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="M181" s="4"/>
     </row>
-    <row r="182" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>26</v>
       </c>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="M182" s="4"/>
     </row>
-    <row r="183" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>26</v>
       </c>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="M183" s="4"/>
     </row>
-    <row r="184" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>26</v>
       </c>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="M184" s="4"/>
     </row>
-    <row r="185" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>26</v>
       </c>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="M185" s="4"/>
     </row>
-    <row r="186" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>26</v>
       </c>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="M186" s="4"/>
     </row>
-    <row r="187" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>26</v>
       </c>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="M187" s="4"/>
     </row>
-    <row r="188" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>26</v>
       </c>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="M188" s="4"/>
     </row>
-    <row r="189" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>26</v>
       </c>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="M189" s="4"/>
     </row>
-    <row r="190" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>26</v>
       </c>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="M190" s="4"/>
     </row>
-    <row r="191" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>26</v>
       </c>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="M191" s="4"/>
     </row>
-    <row r="192" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>26</v>
       </c>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="M192" s="4"/>
     </row>
-    <row r="193" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>26</v>
       </c>
@@ -5238,7 +5238,7 @@
       </c>
       <c r="M193" s="4"/>
     </row>
-    <row r="194" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>26</v>
       </c>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="M194" s="4"/>
     </row>
-    <row r="195" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>26</v>
       </c>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="M195" s="4"/>
     </row>
-    <row r="196" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>26</v>
       </c>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="M196" s="4"/>
     </row>
-    <row r="197" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>26</v>
       </c>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="M197" s="4"/>
     </row>
-    <row r="198" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>26</v>
       </c>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="M198" s="4"/>
     </row>
-    <row r="199" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>26</v>
       </c>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="M199" s="4"/>
     </row>
-    <row r="200" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="M200" s="4"/>
     </row>
-    <row r="201" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="M201" s="4"/>
     </row>
-    <row r="202" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>26</v>
       </c>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="M202" s="4"/>
     </row>
-    <row r="203" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>26</v>
       </c>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="M203" s="4"/>
     </row>
-    <row r="204" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>26</v>
       </c>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="M204" s="4"/>
     </row>
-    <row r="205" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>26</v>
       </c>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="M205" s="4"/>
     </row>
-    <row r="206" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>26</v>
       </c>
@@ -5560,7 +5560,7 @@
       <c r="H206"/>
       <c r="M206" s="4"/>
     </row>
-    <row r="207" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>26</v>
       </c>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="M207" s="4"/>
     </row>
-    <row r="208" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>26</v>
       </c>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="M208" s="4"/>
     </row>
-    <row r="209" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>26</v>
       </c>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="M209" s="4"/>
     </row>
-    <row r="210" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>26</v>
       </c>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="M210" s="4"/>
     </row>
-    <row r="211" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>26</v>
       </c>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="M211" s="4"/>
     </row>
-    <row r="212" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>26</v>
       </c>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="M212" s="4"/>
     </row>
-    <row r="213" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>26</v>
       </c>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="M213" s="4"/>
     </row>
-    <row r="214" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>26</v>
       </c>
@@ -5760,7 +5760,7 @@
       </c>
       <c r="M214" s="4"/>
     </row>
-    <row r="215" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>26</v>
       </c>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="M215" s="4"/>
     </row>
-    <row r="216" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>26</v>
       </c>
@@ -5810,7 +5810,7 @@
       </c>
       <c r="M216" s="4"/>
     </row>
-    <row r="217" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>26</v>
       </c>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="M217" s="4"/>
     </row>
-    <row r="218" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>26</v>
       </c>
@@ -5860,7 +5860,7 @@
       </c>
       <c r="M218" s="4"/>
     </row>
-    <row r="219" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>26</v>
       </c>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="M219" s="4"/>
     </row>
-    <row r="220" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>26</v>
       </c>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="M220" s="4"/>
     </row>
-    <row r="221" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>26</v>
       </c>
@@ -5935,7 +5935,7 @@
       </c>
       <c r="M221" s="4"/>
     </row>
-    <row r="222" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>26</v>
       </c>
@@ -5960,7 +5960,7 @@
       </c>
       <c r="M222" s="4"/>
     </row>
-    <row r="223" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>26</v>
       </c>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="M223" s="4"/>
     </row>
-    <row r="224" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>26</v>
       </c>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="M224" s="4"/>
     </row>
-    <row r="225" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>26</v>
       </c>
@@ -6035,7 +6035,7 @@
       </c>
       <c r="M225" s="4"/>
     </row>
-    <row r="226" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>26</v>
       </c>
@@ -6060,7 +6060,7 @@
       </c>
       <c r="M226" s="4"/>
     </row>
-    <row r="227" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>26</v>
       </c>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="M227" s="4"/>
     </row>
-    <row r="228" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>26</v>
       </c>
@@ -6110,7 +6110,7 @@
       </c>
       <c r="M228" s="4"/>
     </row>
-    <row r="229" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>26</v>
       </c>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="M229" s="4"/>
     </row>
-    <row r="230" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>26</v>
       </c>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="M230" s="4"/>
     </row>
-    <row r="231" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>26</v>
       </c>
@@ -6182,7 +6182,7 @@
       <c r="H231"/>
       <c r="M231" s="4"/>
     </row>
-    <row r="232" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>26</v>
       </c>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="M232" s="4"/>
     </row>
-    <row r="233" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>26</v>
       </c>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="M233" s="4"/>
     </row>
-    <row r="234" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>26</v>
       </c>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="M234" s="4"/>
     </row>
-    <row r="235" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>26</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v>26.083112290008842</v>
       </c>
     </row>
-    <row r="536" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>32</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>31.420765027322403</v>
       </c>
     </row>
-    <row r="537" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>32</v>
       </c>
@@ -13497,7 +13497,7 @@
         <v>32.678686413393436</v>
       </c>
     </row>
-    <row r="538" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>32</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>33.426616915422883</v>
       </c>
     </row>
-    <row r="539" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>32</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>32.465589467384795</v>
       </c>
     </row>
-    <row r="540" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>32</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>31.959048146098507</v>
       </c>
     </row>
-    <row r="541" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>32</v>
       </c>
@@ -13593,7 +13593,7 @@
         <v>32.995286387658908</v>
       </c>
     </row>
-    <row r="542" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>32</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>33.00561797752809</v>
       </c>
     </row>
-    <row r="543" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>32</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>31.137558815388875</v>
       </c>
     </row>
-    <row r="544" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>32</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>29.379461834157059</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>32</v>
       </c>
@@ -13689,7 +13689,7 @@
         <v>30.508006626173387</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>32</v>
       </c>
@@ -13713,7 +13713,7 @@
         <v>32.736962314427103</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>32</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>31.557093425605537</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>32</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>32.329068647681936</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>32</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>28.748676047813589</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>32</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>29.051172707889126</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>32</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>31.040512969979599</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>32</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>31.150491485532328</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>32</v>
       </c>
@@ -13881,7 +13881,7 @@
         <v>32.267275842375788</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>32</v>
       </c>
@@ -13905,7 +13905,7 @@
         <v>31.078610603290677</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>32</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>31.70427800083068</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>32</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>33.423796600485645</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>32</v>
       </c>
@@ -13977,7 +13977,7 @@
         <v>32.591299287065326</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>32</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>31.784492588369442</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>32</v>
       </c>
@@ -14025,7 +14025,7 @@
         <v>33.831282952548328</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>32</v>
       </c>
@@ -14049,7 +14049,7 @@
         <v>31.736436451564153</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>32</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>31.173681942249676</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>32</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>29.685931449878101</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>32</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>30.388294879009567</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>32</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>29.983108108108109</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>32</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>34.299968818210168</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>32</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>30.294117647058826</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>32</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>28.66923406076166</v>
       </c>
     </row>
-    <row r="568" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>32</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>30.14435324087178</v>
       </c>
     </row>
-    <row r="569" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>32</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>32.858873410054514</v>
       </c>
     </row>
-    <row r="570" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>32</v>
       </c>
@@ -14289,7 +14289,7 @@
         <v>31.612998088516395</v>
       </c>
     </row>
-    <row r="571" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>32</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>31.00661278471712</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>32</v>
       </c>
@@ -14337,7 +14337,7 @@
         <v>30.908096280087527</v>
       </c>
     </row>
-    <row r="573" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>32</v>
       </c>
@@ -14361,7 +14361,7 @@
         <v>31.140939597315434</v>
       </c>
     </row>
-    <row r="574" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>32</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>32.001098750171678</v>
       </c>
     </row>
-    <row r="575" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>32</v>
       </c>
@@ -14409,7 +14409,7 @@
         <v>31.851544107464338</v>
       </c>
     </row>
-    <row r="576" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>32</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>32.759344813103738</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>32</v>
       </c>
@@ -14457,7 +14457,7 @@
         <v>32.956152758132951</v>
       </c>
     </row>
-    <row r="578" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>32</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>32.798133662686979</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>32</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>33.955380945699453</v>
       </c>
     </row>
-    <row r="580" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>32</v>
       </c>
@@ -14529,7 +14529,7 @@
         <v>34.271899886234358</v>
       </c>
     </row>
-    <row r="581" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>32</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>34.074908476485497</v>
       </c>
     </row>
-    <row r="582" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>32</v>
       </c>
@@ -14577,7 +14577,7 @@
         <v>16.671541386370283</v>
       </c>
     </row>
-    <row r="583" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>32</v>
       </c>
@@ -14601,7 +14601,7 @@
         <v>30.24164375633049</v>
       </c>
     </row>
-    <row r="584" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>32</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>31.035928980847199</v>
       </c>
     </row>
-    <row r="585" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>32</v>
       </c>
@@ -14649,7 +14649,7 @@
         <v>28.826068792647263</v>
       </c>
     </row>
-    <row r="586" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>32</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>29.358814568619305</v>
       </c>
     </row>
-    <row r="587" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>32</v>
       </c>
@@ -14697,7 +14697,7 @@
         <v>28.975556165888491</v>
       </c>
     </row>
-    <row r="588" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>32</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>31.415149735760423</v>
       </c>
     </row>
-    <row r="589" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>32</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>26.825842696629213</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>32</v>
       </c>
@@ -14769,7 +14769,7 @@
         <v>28.004350190320828</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>32</v>
       </c>
@@ -14793,7 +14793,7 @@
         <v>28.465854659915149</v>
       </c>
     </row>
-    <row r="592" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>32</v>
       </c>
@@ -14817,7 +14817,7 @@
         <v>29.873141454099031</v>
       </c>
     </row>
-    <row r="593" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>32</v>
       </c>
@@ -14841,7 +14841,7 @@
         <v>29.427942794279428</v>
       </c>
     </row>
-    <row r="594" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>32</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>29.525921818685887</v>
       </c>
     </row>
-    <row r="595" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>32</v>
       </c>
@@ -14889,7 +14889,7 @@
         <v>28.869173355865371</v>
       </c>
     </row>
-    <row r="596" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>32</v>
       </c>
@@ -14913,7 +14913,7 @@
         <v>28.641571194762683</v>
       </c>
     </row>
-    <row r="597" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>32</v>
       </c>
@@ -14937,7 +14937,7 @@
         <v>29.821353214235476</v>
       </c>
     </row>
-    <row r="598" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>32</v>
       </c>
@@ -14961,7 +14961,7 @@
         <v>30.212341456462873</v>
       </c>
     </row>
-    <row r="599" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>32</v>
       </c>
@@ -14985,7 +14985,7 @@
         <v>30.962962962962962</v>
       </c>
     </row>
-    <row r="600" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>32</v>
       </c>
@@ -15009,7 +15009,7 @@
         <v>30.736240171551106</v>
       </c>
     </row>
-    <row r="601" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>32</v>
       </c>
@@ -15033,7 +15033,7 @@
         <v>31.219237800590637</v>
       </c>
     </row>
-    <row r="602" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>32</v>
       </c>
@@ -15057,7 +15057,7 @@
         <v>31.903995316844725</v>
       </c>
     </row>
-    <row r="603" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>32</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>30.238197118813293</v>
       </c>
     </row>
-    <row r="604" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>32</v>
       </c>
@@ -15105,7 +15105,7 @@
         <v>31.835491241431832</v>
       </c>
     </row>
-    <row r="605" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>32</v>
       </c>
@@ -15129,7 +15129,7 @@
         <v>35.902281009582943</v>
       </c>
     </row>
-    <row r="606" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>32</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>31.026252983293556</v>
       </c>
     </row>
-    <row r="607" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>32</v>
       </c>
@@ -15177,7 +15177,7 @@
         <v>28.912466843501328</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>32</v>
       </c>
@@ -15201,7 +15201,7 @@
         <v>29.988893002591634</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>32</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>31.625553447185325</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>32</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>30.693677102516883</v>
       </c>
     </row>
-    <row r="611" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>32</v>
       </c>
@@ -15273,7 +15273,7 @@
         <v>30.703944083874187</v>
       </c>
     </row>
-    <row r="612" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>32</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>27.592768791627023</v>
       </c>
     </row>
-    <row r="613" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>32</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>29.078014184397158</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>32</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>29.56730769230769</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>32</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>30.569007263922519</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>32</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>30.326295585412666</v>
       </c>
     </row>
-    <row r="617" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>32</v>
       </c>
@@ -15417,7 +15417,7 @@
         <v>30.347890451517394</v>
       </c>
     </row>
-    <row r="618" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>32</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>32.419967444384156</v>
       </c>
     </row>
-    <row r="619" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>32</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>30.912082745651155</v>
       </c>
     </row>
-    <row r="620" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>32</v>
       </c>
@@ -15489,7 +15489,7 @@
         <v>32.801197306061361</v>
       </c>
     </row>
-    <row r="621" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>32</v>
       </c>
@@ -15513,7 +15513,7 @@
         <v>33.321432821611324</v>
       </c>
     </row>
-    <row r="622" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>32</v>
       </c>
@@ -15537,7 +15537,7 @@
         <v>33.657891573506426</v>
       </c>
     </row>
-    <row r="623" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>32</v>
       </c>
@@ -15561,7 +15561,7 @@
         <v>32.98279158699809</v>
       </c>
     </row>
-    <row r="624" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>32</v>
       </c>
@@ -15585,7 +15585,7 @@
         <v>32.929554274961781</v>
       </c>
     </row>
-    <row r="625" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>32</v>
       </c>
@@ -15609,7 +15609,7 @@
         <v>31.819257156375677</v>
       </c>
     </row>
-    <row r="626" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>32</v>
       </c>
@@ -15633,7 +15633,7 @@
         <v>28.772164603546337</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>32</v>
       </c>
@@ -15657,7 +15657,7 @@
         <v>30.714045510592985</v>
       </c>
     </row>
-    <row r="628" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>32</v>
       </c>
@@ -15681,7 +15681,7 @@
         <v>30.440097799511005</v>
       </c>
     </row>
-    <row r="629" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>32</v>
       </c>
@@ -15705,7 +15705,7 @@
         <v>32.679738562091501</v>
       </c>
     </row>
-    <row r="630" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>32</v>
       </c>
@@ -15729,7 +15729,7 @@
         <v>33.311979500320305</v>
       </c>
     </row>
-    <row r="631" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>32</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>35.216819973718792</v>
       </c>
     </row>
-    <row r="632" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>32</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>32.827299857272607</v>
       </c>
     </row>
-    <row r="633" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>32</v>
       </c>
@@ -15801,7 +15801,7 @@
         <v>35.709779179810724</v>
       </c>
     </row>
-    <row r="634" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>32</v>
       </c>
@@ -15825,7 +15825,7 @@
         <v>35.639137296159916</v>
       </c>
     </row>
-    <row r="635" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>32</v>
       </c>
@@ -15849,7 +15849,7 @@
         <v>33.028641072516756</v>
       </c>
     </row>
-    <row r="636" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>32</v>
       </c>
@@ -15873,7 +15873,7 @@
         <v>34.554082005110111</v>
       </c>
     </row>
-    <row r="637" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>32</v>
       </c>
@@ -15897,7 +15897,7 @@
         <v>32.595621842675008</v>
       </c>
     </row>
-    <row r="638" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>32</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>32.277636209197915</v>
       </c>
     </row>
-    <row r="639" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>32</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>34.630940343781596</v>
       </c>
     </row>
-    <row r="640" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>32</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>34.356448149551596</v>
       </c>
     </row>
-    <row r="641" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>32</v>
       </c>
@@ -15993,7 +15993,7 @@
         <v>27.952712407468788</v>
       </c>
     </row>
-    <row r="642" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>32</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>29.847292919944469</v>
       </c>
     </row>
-    <row r="643" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>32</v>
       </c>
@@ -16041,7 +16041,7 @@
         <v>31.863051355741597</v>
       </c>
     </row>
-    <row r="644" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>32</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>33.379001120936607</v>
       </c>
     </row>
-    <row r="645" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>32</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>31.654676258992808</v>
       </c>
     </row>
-    <row r="646" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>32</v>
       </c>
@@ -16113,7 +16113,7 @@
         <v>30.703320242770438</v>
       </c>
     </row>
-    <row r="647" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>32</v>
       </c>
@@ -16137,7 +16137,7 @@
         <v>30.651790957134466</v>
       </c>
     </row>
-    <row r="648" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>32</v>
       </c>
@@ -16161,7 +16161,7 @@
         <v>29.919981444972748</v>
       </c>
     </row>
-    <row r="649" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>32</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>29.065200314218384</v>
       </c>
     </row>
-    <row r="650" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>32</v>
       </c>
@@ -16209,7 +16209,7 @@
         <v>31.987351009486744</v>
       </c>
     </row>
-    <row r="651" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>32</v>
       </c>
@@ -16233,7 +16233,7 @@
         <v>15.913508260447037</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>32</v>
       </c>
@@ -16257,7 +16257,7 @@
         <v>27.524053099500669</v>
       </c>
     </row>
-    <row r="653" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>32</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>27.596050909955988</v>
       </c>
     </row>
-    <row r="654" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>32</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>30.337078651685395</v>
       </c>
     </row>
-    <row r="655" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>32</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>33.502287056496478</v>
       </c>
     </row>
-    <row r="656" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>32</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>28.87999029244024</v>
       </c>
     </row>
-    <row r="657" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>32</v>
       </c>
@@ -16377,7 +16377,7 @@
         <v>29.858051884483601</v>
       </c>
     </row>
-    <row r="658" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>32</v>
       </c>
@@ -16401,7 +16401,7 @@
         <v>28.708708708708713</v>
       </c>
     </row>
-    <row r="659" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>32</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>29.013307756863689</v>
       </c>
     </row>
-    <row r="660" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>32</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>28.245192307692307</v>
       </c>
     </row>
-    <row r="661" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>32</v>
       </c>
@@ -16473,7 +16473,7 @@
         <v>28.238404229752465</v>
       </c>
     </row>
-    <row r="662" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>32</v>
       </c>
@@ -16497,7 +16497,7 @@
         <v>28.898180029513036</v>
       </c>
     </row>
-    <row r="663" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>32</v>
       </c>
@@ -16521,7 +16521,7 @@
         <v>30.45369794903667</v>
       </c>
     </row>
-    <row r="664" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>32</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>27.301365068253414</v>
       </c>
     </row>
-    <row r="665" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>32</v>
       </c>
@@ -16569,7 +16569,7 @@
         <v>27.809965237543452</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>32</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>28.073012939001845</v>
       </c>
     </row>
-    <row r="667" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>32</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>31.23456790123457</v>
       </c>
     </row>
-    <row r="668" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>32</v>
       </c>
@@ -16641,7 +16641,7 @@
         <v>30.085261875761265</v>
       </c>
     </row>
-    <row r="669" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>32</v>
       </c>
@@ -16665,7 +16665,7 @@
         <v>30.276601046598554</v>
       </c>
     </row>
-    <row r="670" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>32</v>
       </c>
@@ -16689,7 +16689,7 @@
         <v>28.467595396729251</v>
       </c>
     </row>
-    <row r="671" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>32</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>26.529026529026527</v>
       </c>
     </row>
-    <row r="672" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>32</v>
       </c>
@@ -16737,7 +16737,7 @@
         <v>27.546373431078528</v>
       </c>
     </row>
-    <row r="673" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>32</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>28.817451205510903</v>
       </c>
     </row>
-    <row r="674" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>32</v>
       </c>
@@ -16785,7 +16785,7 @@
         <v>40.981093510475219</v>
       </c>
     </row>
-    <row r="675" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>32</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>36.765522603576585</v>
       </c>
     </row>
-    <row r="676" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>32</v>
       </c>
@@ -16833,7 +16833,7 @@
         <v>38.412965691433378</v>
       </c>
     </row>
-    <row r="677" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>32</v>
       </c>
@@ -16857,7 +16857,7 @@
         <v>39.662259748916789</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>32</v>
       </c>
@@ -16881,7 +16881,7 @@
         <v>37.724550898203596</v>
       </c>
     </row>
-    <row r="679" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>32</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>39.362330249950794</v>
       </c>
     </row>
-    <row r="680" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>32</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>38.53300733496333</v>
       </c>
     </row>
-    <row r="681" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>32</v>
       </c>
@@ -16953,7 +16953,7 @@
         <v>39.995349377979302</v>
       </c>
     </row>
-    <row r="682" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>32</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>43.906491040702505</v>
       </c>
     </row>
-    <row r="683" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>32</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>39.928736114022222</v>
       </c>
     </row>
-    <row r="684" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>32</v>
       </c>
@@ -17025,7 +17025,7 @@
         <v>37.094465648854957</v>
       </c>
     </row>
-    <row r="685" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>32</v>
       </c>
@@ -17049,7 +17049,7 @@
         <v>39.958911145351827</v>
       </c>
     </row>
-    <row r="686" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>32</v>
       </c>
@@ -17073,7 +17073,7 @@
         <v>40.239546123135106</v>
       </c>
     </row>
-    <row r="687" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>32</v>
       </c>
@@ -17097,7 +17097,7 @@
         <v>45.209456656988806</v>
       </c>
     </row>
-    <row r="688" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>32</v>
       </c>
@@ -17121,7 +17121,7 @@
         <v>42.653483559438946</v>
       </c>
     </row>
-    <row r="689" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>32</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>41.263426565989576</v>
       </c>
     </row>
-    <row r="690" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>32</v>
       </c>
@@ -17169,7 +17169,7 @@
         <v>37.669608122212736</v>
       </c>
     </row>
-    <row r="691" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>32</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>38.528055342044581</v>
       </c>
     </row>
-    <row r="692" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>32</v>
       </c>
@@ -17217,7 +17217,7 @@
         <v>37.996371699254183</v>
       </c>
     </row>
-    <row r="693" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>32</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>37.124504061968636</v>
       </c>
     </row>
-    <row r="694" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>32</v>
       </c>
@@ -17265,7 +17265,7 @@
         <v>40.598068736372127</v>
       </c>
     </row>
-    <row r="695" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>32</v>
       </c>
@@ -17289,7 +17289,7 @@
         <v>37.989145958297627</v>
       </c>
     </row>
-    <row r="696" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>32</v>
       </c>
@@ -17313,7 +17313,7 @@
         <v>37.900874635568513</v>
       </c>
     </row>
-    <row r="697" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>32</v>
       </c>
@@ -17337,7 +17337,7 @@
         <v>39.732414352321101</v>
       </c>
     </row>
-    <row r="698" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>32</v>
       </c>
@@ -17361,7 +17361,7 @@
         <v>41.891284815813115</v>
       </c>
     </row>
-    <row r="699" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>32</v>
       </c>
@@ -17385,7 +17385,7 @@
         <v>39.95826812728221</v>
       </c>
     </row>
-    <row r="700" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>32</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>45.394815434237245</v>
       </c>
     </row>
-    <row r="701" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>32</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>40.630182421227197</v>
       </c>
     </row>
-    <row r="702" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>32</v>
       </c>
@@ -17457,7 +17457,7 @@
         <v>40.868066119054859</v>
       </c>
     </row>
-    <row r="703" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>32</v>
       </c>
@@ -17481,7 +17481,7 @@
         <v>42.487157534246577</v>
       </c>
     </row>
-    <row r="704" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>32</v>
       </c>
@@ -17505,7 +17505,7 @@
         <v>41.425490863693113</v>
       </c>
     </row>
-    <row r="705" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>32</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>42.417582417582416</v>
       </c>
     </row>
-    <row r="706" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>32</v>
       </c>
@@ -17553,7 +17553,7 @@
         <v>39.346620094514073</v>
       </c>
     </row>
-    <row r="707" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>32</v>
       </c>
@@ -17577,7 +17577,7 @@
         <v>41.210560206052804</v>
       </c>
     </row>
-    <row r="708" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>32</v>
       </c>
@@ -17601,7 +17601,7 @@
         <v>40.498763396537505</v>
       </c>
     </row>
-    <row r="709" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>32</v>
       </c>
@@ -17625,7 +17625,7 @@
         <v>42.683571051241415</v>
       </c>
     </row>
-    <row r="710" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>32</v>
       </c>
@@ -17649,7 +17649,7 @@
         <v>39.577565877166002</v>
       </c>
     </row>
-    <row r="711" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>32</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>41.636755204594401</v>
       </c>
     </row>
-    <row r="712" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>32</v>
       </c>
@@ -17697,7 +17697,7 @@
         <v>37.739445344515389</v>
       </c>
     </row>
-    <row r="713" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>32</v>
       </c>
@@ -17721,7 +17721,7 @@
         <v>36.982923933887314</v>
       </c>
     </row>
-    <row r="714" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>32</v>
       </c>
@@ -17745,7 +17745,7 @@
         <v>37.228160707703651</v>
       </c>
     </row>
-    <row r="715" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>32</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>36.734693877551017</v>
       </c>
     </row>
-    <row r="716" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>32</v>
       </c>
@@ -17793,7 +17793,7 @@
         <v>36.69557279780922</v>
       </c>
     </row>
-    <row r="717" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>32</v>
       </c>
@@ -17817,7 +17817,7 @@
         <v>40.748566254150319</v>
       </c>
     </row>
-    <row r="718" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>32</v>
       </c>
@@ -17841,7 +17841,7 @@
         <v>38.217783752640678</v>
       </c>
     </row>
-    <row r="719" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>32</v>
       </c>
@@ -17865,7 +17865,7 @@
         <v>39.825638993461467</v>
       </c>
     </row>
-    <row r="720" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>32</v>
       </c>
@@ -17889,7 +17889,7 @@
         <v>36.414565826330531</v>
       </c>
     </row>
-    <row r="721" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>32</v>
       </c>
@@ -17913,7 +17913,7 @@
         <v>37.252178305341587</v>
       </c>
     </row>
-    <row r="722" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>32</v>
       </c>
@@ -17937,7 +17937,7 @@
         <v>37.918040508714078</v>
       </c>
     </row>
-    <row r="723" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>32</v>
       </c>
@@ -17961,7 +17961,7 @@
         <v>36.818181818181813</v>
       </c>
     </row>
-    <row r="724" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>32</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>36.581346808744371</v>
       </c>
     </row>
-    <row r="725" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>32</v>
       </c>
@@ -18009,7 +18009,7 @@
         <v>35.071090047393369</v>
       </c>
     </row>
-    <row r="726" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>32</v>
       </c>
@@ -18033,7 +18033,7 @@
         <v>36.817817014446227</v>
       </c>
     </row>
-    <row r="727" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>32</v>
       </c>
@@ -18057,7 +18057,7 @@
         <v>39.488701209769459</v>
       </c>
     </row>
-    <row r="728" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>32</v>
       </c>
@@ -18081,7 +18081,7 @@
         <v>39.161610590182022</v>
       </c>
     </row>
-    <row r="729" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>32</v>
       </c>
@@ -18105,7 +18105,7 @@
         <v>35.796420357964209</v>
       </c>
     </row>
-    <row r="730" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>32</v>
       </c>
@@ -18129,7 +18129,7 @@
         <v>35.699417152373023</v>
       </c>
     </row>
-    <row r="731" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>32</v>
       </c>
@@ -18153,7 +18153,7 @@
         <v>36.309900781085076</v>
       </c>
     </row>
-    <row r="732" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>32</v>
       </c>
@@ -18177,7 +18177,7 @@
         <v>37.172392189620965</v>
       </c>
     </row>
-    <row r="733" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>32</v>
       </c>
@@ -18201,7 +18201,7 @@
         <v>38.37471783295711</v>
       </c>
     </row>
-    <row r="734" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>32</v>
       </c>
@@ -18225,7 +18225,7 @@
         <v>38.469945355191257</v>
       </c>
     </row>
-    <row r="735" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>32</v>
       </c>
@@ -18249,7 +18249,7 @@
         <v>35.42735456393379</v>
       </c>
     </row>
-    <row r="736" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>32</v>
       </c>
@@ -18273,7 +18273,7 @@
         <v>35.287528005974607</v>
       </c>
     </row>
-    <row r="737" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>32</v>
       </c>
@@ -18297,7 +18297,7 @@
         <v>35.721219180741606</v>
       </c>
     </row>
-    <row r="738" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>32</v>
       </c>
@@ -18321,7 +18321,7 @@
         <v>33.030852994555353</v>
       </c>
     </row>
-    <row r="739" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>32</v>
       </c>
@@ -18345,7 +18345,7 @@
         <v>34.900490337467552</v>
       </c>
     </row>
-    <row r="740" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>32</v>
       </c>
@@ -18369,7 +18369,7 @@
         <v>35.753086419753089</v>
       </c>
     </row>
-    <row r="741" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:8" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>32</v>
       </c>
@@ -18393,7 +18393,7 @@
         <v>36.361794793882311</v>
       </c>
     </row>
-    <row r="742" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:8" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>32</v>
       </c>
@@ -18418,7 +18418,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H742" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H742" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="JJMLF"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E537:E1048576 E1:E535 M160:M166" xr:uid="{C0D40973-6001-441E-B08C-5897C12BA20E}">
